--- a/项目管理/进度计划/Demo-里程碑10/Demo-里程碑10计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑10/Demo-里程碑10计划.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑10/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="520" yWindow="480" windowWidth="37180" windowHeight="20000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="38040" windowHeight="19980" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑10" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="666">
   <si>
     <t>里程碑目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -3957,6 +3957,105 @@
   </si>
   <si>
     <t>调整成长相关数值</t>
+  </si>
+  <si>
+    <t>考虑其他调整工作，排期</t>
+    <rPh sb="0" eb="1">
+      <t>kao'lv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼副本-debug</t>
+  </si>
+  <si>
+    <t>试炼副本-debug</t>
+    <rPh sb="0" eb="1">
+      <t>shi'lian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'b</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5，6章副本-debug</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'b</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5，6章副本怪物调整（模型，材质，血条）</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cai'zhi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xue'tiao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5，6章副本补充特效</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3981,7 +4080,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4077,7 +4176,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4245,7 +4344,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -4257,6 +4356,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4577,58 +4678,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="51">
     <cellStyle name="Normal 2" xfId="8"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="85">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5364,56 +5467,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -5689,8 +5742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -6767,7 +6820,9 @@
       </c>
       <c r="G42" s="19"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="I42" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="J42" s="21"/>
       <c r="K42" s="64"/>
       <c r="L42" s="21"/>
@@ -7109,7 +7164,7 @@
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
     </row>
-    <row r="55" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="A55" s="69">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7248,11 +7303,13 @@
         <v>38</v>
       </c>
       <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71" t="s">
+      <c r="H59" s="71" t="s">
         <v>509</v>
       </c>
+      <c r="I59" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" s="71"/>
       <c r="K59" s="71"/>
       <c r="L59" s="71"/>
       <c r="M59" s="71"/>
@@ -7538,8 +7595,12 @@
         <v>38</v>
       </c>
       <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
+      <c r="H69" s="71" t="s">
+        <v>509</v>
+      </c>
+      <c r="I69" s="71" t="s">
+        <v>38</v>
+      </c>
       <c r="J69" s="71"/>
       <c r="K69" s="71"/>
       <c r="L69" s="71"/>
@@ -7678,8 +7739,12 @@
       </c>
       <c r="G74" s="71"/>
       <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="I74" s="71" t="s">
+        <v>509</v>
+      </c>
+      <c r="J74" s="71" t="s">
+        <v>38</v>
+      </c>
       <c r="K74" s="71"/>
       <c r="L74" s="24"/>
       <c r="M74" s="71"/>
@@ -9063,11 +9128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A219" sqref="A219:XFD219"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -10925,7 +10990,7 @@
       <c r="V37" s="96"/>
       <c r="W37" s="112"/>
     </row>
-    <row r="38" spans="1:23" s="79" customFormat="1" ht="68" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="79" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="79" t="s">
         <v>379</v>
@@ -13421,21 +13486,45 @@
       <c r="G96" s="80"/>
       <c r="H96" s="85"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="72"/>
       <c r="B97" s="72" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="80"/>
+      <c r="H97" s="83"/>
+      <c r="I97" s="68"/>
+      <c r="L97" s="68"/>
+      <c r="O97" s="68"/>
+      <c r="R97" s="68"/>
+    </row>
+    <row r="98" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="72"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="80"/>
       <c r="G98" s="80"/>
       <c r="H98" s="85"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I98" s="68"/>
+      <c r="L98" s="68"/>
+      <c r="O98" s="68"/>
+      <c r="R98" s="68"/>
+    </row>
+    <row r="99" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="72"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="80"/>
       <c r="G99" s="80"/>
       <c r="H99" s="85"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
+      <c r="I99" s="68"/>
+      <c r="L99" s="68"/>
+      <c r="O99" s="68"/>
+      <c r="R99" s="68"/>
+    </row>
+    <row r="100" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="82" t="s">
         <v>144</v>
       </c>
@@ -13470,7 +13559,8 @@
       <c r="S100" s="80"/>
       <c r="T100" s="85"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="72"/>
       <c r="B101" s="87" t="s">
         <v>339</v>
       </c>
@@ -13480,6 +13570,7 @@
       <c r="E101" s="81">
         <v>4</v>
       </c>
+      <c r="F101" s="80"/>
       <c r="G101" s="80" t="str">
         <f>IF($E101=1,$B101," ")</f>
         <v xml:space="preserve"> </v>
@@ -13488,8 +13579,13 @@
         <f>IF($E101=1,$D101," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I101" s="68"/>
+      <c r="L101" s="68"/>
+      <c r="O101" s="68"/>
+      <c r="R101" s="68"/>
+    </row>
+    <row r="102" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="72"/>
       <c r="B102" s="87" t="s">
         <v>651</v>
       </c>
@@ -13499,14 +13595,28 @@
       <c r="E102" s="81">
         <v>4</v>
       </c>
+      <c r="F102" s="80"/>
       <c r="G102" s="80"/>
       <c r="H102" s="85"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I102" s="68"/>
+      <c r="L102" s="68"/>
+      <c r="O102" s="68"/>
+      <c r="R102" s="68"/>
+    </row>
+    <row r="103" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="72"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="80"/>
       <c r="G103" s="80"/>
       <c r="H103" s="85"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I103" s="68"/>
+      <c r="L103" s="68"/>
+      <c r="O103" s="68"/>
+      <c r="R103" s="68"/>
+    </row>
+    <row r="104" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="72"/>
       <c r="B104" s="67" t="s">
         <v>652</v>
       </c>
@@ -13516,10 +13626,16 @@
       <c r="E104" s="81">
         <v>5</v>
       </c>
+      <c r="F104" s="80"/>
       <c r="G104" s="80"/>
       <c r="H104" s="85"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I104" s="68"/>
+      <c r="L104" s="68"/>
+      <c r="O104" s="68"/>
+      <c r="R104" s="68"/>
+    </row>
+    <row r="105" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="72"/>
       <c r="B105" s="67" t="s">
         <v>646</v>
       </c>
@@ -13529,6 +13645,7 @@
       <c r="E105" s="81">
         <v>5</v>
       </c>
+      <c r="F105" s="80"/>
       <c r="G105" s="80" t="str">
         <f t="shared" ref="G105" si="32">IF($E105=1,$B105," ")</f>
         <v xml:space="preserve"> </v>
@@ -13537,6 +13654,7 @@
         <f t="shared" ref="H105" si="33">IF($E105=1,$D105," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="I105" s="68"/>
       <c r="J105" s="80" t="str">
         <f t="shared" ref="J105" si="34">IF($E105=2,$B105," ")</f>
         <v xml:space="preserve"> </v>
@@ -13545,6 +13663,7 @@
         <f t="shared" ref="K105" si="35">IF($E105=2,$D105," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="L105" s="68"/>
       <c r="M105" s="80" t="str">
         <f t="shared" ref="M105" si="36">IF($E105=3,$B105," ")</f>
         <v xml:space="preserve"> </v>
@@ -13553,6 +13672,7 @@
         <f t="shared" ref="N105" si="37">IF($E105=3,$D105," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O105" s="68"/>
       <c r="P105" s="80" t="str">
         <f t="shared" ref="P105" si="38">IF($E105=4,$B105," ")</f>
         <v xml:space="preserve"> </v>
@@ -13561,6 +13681,7 @@
         <f t="shared" ref="Q105" si="39">IF($E105=4,$D105," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="R105" s="68"/>
       <c r="S105" s="80" t="str">
         <f t="shared" ref="S105" si="40">IF($E105=5,$B105," ")</f>
         <v>五天版本相应修改</v>
@@ -13570,14 +13691,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="72"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="80"/>
       <c r="G106" s="80"/>
       <c r="H106" s="85"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I106" s="68"/>
+      <c r="L106" s="68"/>
+      <c r="O106" s="68"/>
+      <c r="R106" s="68"/>
+    </row>
+    <row r="107" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="72"/>
       <c r="B107" s="72" t="s">
         <v>653</v>
       </c>
+      <c r="D107" s="81"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="80"/>
       <c r="G107" s="80" t="str">
         <f>IF($E107=1,$B107," ")</f>
         <v xml:space="preserve"> </v>
@@ -13623,16 +13756,33 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="72"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
+      <c r="F108" s="80"/>
       <c r="G108" s="80"/>
       <c r="H108" s="85"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I108" s="68"/>
+      <c r="L108" s="68"/>
+      <c r="O108" s="68"/>
+      <c r="R108" s="68"/>
+    </row>
+    <row r="109" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="72"/>
       <c r="B109" s="87"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="80"/>
       <c r="G109" s="80"/>
       <c r="H109" s="85"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I109" s="68"/>
+      <c r="L109" s="68"/>
+      <c r="O109" s="68"/>
+      <c r="R109" s="68"/>
+    </row>
+    <row r="110" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="72"/>
       <c r="B110" s="87" t="s">
         <v>656</v>
       </c>
@@ -13642,6 +13792,7 @@
       <c r="E110" s="81">
         <v>6</v>
       </c>
+      <c r="F110" s="80"/>
       <c r="G110" s="80" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
@@ -13650,9 +13801,12 @@
         <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
+      <c r="I110" s="68"/>
+      <c r="L110" s="68"/>
+      <c r="O110" s="68"/>
+      <c r="R110" s="68"/>
+    </row>
+    <row r="111" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="82" t="s">
         <v>615</v>
       </c>
@@ -13711,8 +13865,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
+    <row r="112" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="82" t="s">
         <v>117</v>
       </c>
@@ -13722,6 +13875,7 @@
       <c r="E112" s="81">
         <v>6</v>
       </c>
+      <c r="F112" s="80"/>
       <c r="G112" s="80" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
@@ -16108,8 +16262,7 @@
       <c r="V192" s="80"/>
       <c r="W192" s="101"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A193" s="67"/>
+    <row r="193" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="67" t="s">
         <v>380</v>
       </c>
@@ -16119,6 +16272,7 @@
       <c r="E193" s="81">
         <v>1</v>
       </c>
+      <c r="F193" s="80"/>
       <c r="G193" s="80" t="str">
         <f t="shared" si="71"/>
         <v>疲劳值配置，次数限制配置</v>
@@ -16127,6 +16281,7 @@
         <f t="shared" si="72"/>
         <v>2</v>
       </c>
+      <c r="I193" s="68"/>
       <c r="J193" s="80" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
@@ -16135,6 +16290,7 @@
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="L193" s="68"/>
       <c r="M193" s="80" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
@@ -16143,6 +16299,7 @@
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O193" s="68"/>
       <c r="P193" s="80" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
@@ -16151,19 +16308,29 @@
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A194" s="67"/>
+      <c r="R193" s="68"/>
+      <c r="U193" s="68"/>
+    </row>
+    <row r="194" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D194" s="81"/>
+      <c r="E194" s="81"/>
+      <c r="F194" s="80"/>
       <c r="G194" s="80"/>
       <c r="H194" s="85"/>
+      <c r="I194" s="68"/>
       <c r="J194" s="80"/>
       <c r="K194" s="85"/>
+      <c r="L194" s="68"/>
       <c r="M194" s="80"/>
       <c r="N194" s="85"/>
+      <c r="O194" s="68"/>
       <c r="P194" s="80"/>
       <c r="Q194" s="85"/>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R194" s="68"/>
+      <c r="U194" s="68"/>
+    </row>
+    <row r="195" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="72"/>
       <c r="B195" s="67" t="s">
         <v>465</v>
       </c>
@@ -16173,6 +16340,7 @@
       <c r="E195" s="81">
         <v>1</v>
       </c>
+      <c r="F195" s="80"/>
       <c r="G195" s="80" t="str">
         <f t="shared" si="71"/>
         <v>道具，任务翻译需求</v>
@@ -16181,6 +16349,7 @@
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
+      <c r="I195" s="68"/>
       <c r="J195" s="80" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
@@ -16189,6 +16358,7 @@
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="L195" s="68"/>
       <c r="M195" s="80" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
@@ -16197,6 +16367,7 @@
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O195" s="68"/>
       <c r="P195" s="80" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
@@ -16205,8 +16376,11 @@
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="196" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+      <c r="R195" s="68"/>
+      <c r="U195" s="68"/>
+    </row>
+    <row r="196" spans="1:21" s="67" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A196" s="72"/>
       <c r="B196" s="67" t="s">
         <v>376</v>
       </c>
@@ -16227,6 +16401,7 @@
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
+      <c r="I196" s="68"/>
       <c r="J196" s="80" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
@@ -16235,6 +16410,7 @@
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="L196" s="68"/>
       <c r="M196" s="80" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
@@ -16243,6 +16419,7 @@
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O196" s="68"/>
       <c r="P196" s="80" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
@@ -16251,8 +16428,14 @@
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R196" s="68"/>
+      <c r="U196" s="68"/>
+    </row>
+    <row r="197" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="72"/>
+      <c r="D197" s="81"/>
+      <c r="E197" s="81"/>
+      <c r="F197" s="80"/>
       <c r="G197" s="80" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
@@ -16261,6 +16444,7 @@
         <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="I197" s="68"/>
       <c r="J197" s="80" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
@@ -16269,6 +16453,7 @@
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="L197" s="68"/>
       <c r="M197" s="80" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
@@ -16277,6 +16462,7 @@
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O197" s="68"/>
       <c r="P197" s="80" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
@@ -16285,6 +16471,8 @@
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="R197" s="68"/>
+      <c r="U197" s="68"/>
     </row>
     <row r="198" spans="1:21" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="82" t="s">
@@ -16422,8 +16610,12 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="72"/>
       <c r="B201" s="72"/>
+      <c r="D201" s="81"/>
+      <c r="E201" s="81"/>
+      <c r="F201" s="80"/>
       <c r="G201" s="80" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
@@ -16432,6 +16624,7 @@
         <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="I201" s="68"/>
       <c r="J201" s="80" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
@@ -16440,6 +16633,7 @@
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="L201" s="68"/>
       <c r="M201" s="80" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
@@ -16448,6 +16642,7 @@
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O201" s="68"/>
       <c r="P201" s="80" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
@@ -16456,8 +16651,11 @@
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R201" s="68"/>
+      <c r="U201" s="68"/>
+    </row>
+    <row r="202" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="72"/>
       <c r="B202" s="67" t="s">
         <v>658</v>
       </c>
@@ -16467,32 +16665,61 @@
       <c r="E202" s="81">
         <v>3</v>
       </c>
+      <c r="F202" s="80"/>
       <c r="G202" s="80"/>
       <c r="H202" s="85"/>
+      <c r="I202" s="68"/>
       <c r="J202" s="80"/>
       <c r="K202" s="85"/>
+      <c r="L202" s="68"/>
       <c r="M202" s="80"/>
       <c r="N202" s="85"/>
+      <c r="O202" s="68"/>
       <c r="P202" s="80"/>
       <c r="Q202" s="85"/>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R202" s="68"/>
+      <c r="U202" s="68"/>
+    </row>
+    <row r="203" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="72"/>
       <c r="B203" s="72"/>
+      <c r="D203" s="81"/>
+      <c r="E203" s="81"/>
+      <c r="F203" s="80"/>
       <c r="G203" s="80"/>
       <c r="H203" s="85"/>
+      <c r="I203" s="68"/>
       <c r="J203" s="80"/>
       <c r="K203" s="85"/>
+      <c r="L203" s="68"/>
       <c r="M203" s="80"/>
       <c r="N203" s="85"/>
+      <c r="O203" s="68"/>
       <c r="P203" s="80"/>
       <c r="Q203" s="85"/>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R203" s="68"/>
+      <c r="U203" s="68"/>
+    </row>
+    <row r="204" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="72"/>
       <c r="B204" s="72" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D204" s="81"/>
+      <c r="E204" s="81"/>
+      <c r="F204" s="80"/>
+      <c r="H204" s="83"/>
+      <c r="I204" s="68"/>
+      <c r="L204" s="68"/>
+      <c r="O204" s="68"/>
+      <c r="R204" s="68"/>
+      <c r="U204" s="68"/>
+    </row>
+    <row r="205" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="72"/>
+      <c r="D205" s="81"/>
+      <c r="E205" s="81"/>
+      <c r="F205" s="80"/>
       <c r="G205" s="80" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
@@ -16501,6 +16728,7 @@
         <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="I205" s="68"/>
       <c r="J205" s="80" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
@@ -16509,6 +16737,7 @@
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="L205" s="68"/>
       <c r="M205" s="80" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
@@ -16517,6 +16746,7 @@
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O205" s="68"/>
       <c r="P205" s="80" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
@@ -16525,8 +16755,11 @@
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R205" s="68"/>
+      <c r="U205" s="68"/>
+    </row>
+    <row r="206" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="72"/>
       <c r="B206" s="67" t="s">
         <v>333</v>
       </c>
@@ -16536,6 +16769,7 @@
       <c r="E206" s="83">
         <v>4</v>
       </c>
+      <c r="F206" s="80"/>
       <c r="G206" s="80" t="str">
         <f>IF($E206=1,$B206," ")</f>
         <v xml:space="preserve"> </v>
@@ -16574,9 +16808,9 @@
       <c r="R206" s="86"/>
       <c r="S206" s="80"/>
       <c r="T206" s="85"/>
-      <c r="U206" s="67"/>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="72"/>
       <c r="B207" s="67" t="s">
         <v>334</v>
       </c>
@@ -16586,6 +16820,7 @@
       <c r="E207" s="83">
         <v>4</v>
       </c>
+      <c r="F207" s="80"/>
       <c r="G207" s="80" t="str">
         <f>IF($E207=1,$B207," ")</f>
         <v xml:space="preserve"> </v>
@@ -16624,17 +16859,25 @@
       <c r="R207" s="86"/>
       <c r="S207" s="80"/>
       <c r="T207" s="85"/>
-      <c r="U207" s="67"/>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="72"/>
+      <c r="D208" s="81"/>
+      <c r="E208" s="81"/>
+      <c r="F208" s="80"/>
       <c r="G208" s="80"/>
       <c r="H208" s="85"/>
+      <c r="I208" s="68"/>
       <c r="J208" s="80"/>
       <c r="K208" s="85"/>
+      <c r="L208" s="68"/>
       <c r="M208" s="80"/>
       <c r="N208" s="85"/>
+      <c r="O208" s="68"/>
       <c r="P208" s="80"/>
       <c r="Q208" s="85"/>
+      <c r="R208" s="68"/>
+      <c r="U208" s="68"/>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G209" s="80"/>
@@ -17084,11 +17327,41 @@
       </c>
       <c r="W239" s="67"/>
     </row>
-    <row r="243" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D241" s="81"/>
+      <c r="E241" s="81"/>
+      <c r="F241" s="80"/>
+      <c r="H241" s="83"/>
+      <c r="I241" s="68"/>
+      <c r="L241" s="68"/>
+      <c r="O241" s="68"/>
+      <c r="R241" s="68"/>
+      <c r="U241" s="68"/>
+    </row>
+    <row r="242" spans="2:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D242" s="81"/>
+      <c r="E242" s="81"/>
+      <c r="F242" s="80"/>
+      <c r="H242" s="83"/>
+      <c r="I242" s="68"/>
+      <c r="L242" s="68"/>
+      <c r="O242" s="68"/>
+      <c r="R242" s="68"/>
+      <c r="U242" s="68"/>
+    </row>
+    <row r="243" spans="2:21" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B243" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="W243" s="67"/>
+      <c r="D243" s="81"/>
+      <c r="E243" s="81"/>
+      <c r="F243" s="80"/>
+      <c r="H243" s="83"/>
+      <c r="I243" s="68"/>
+      <c r="L243" s="68"/>
+      <c r="O243" s="68"/>
+      <c r="R243" s="68"/>
+      <c r="U243" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -17260,7 +17533,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53:XFD53"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -17896,13 +18169,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -18000,6 +18273,9 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="s">
+        <v>659</v>
+      </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
       <c r="H5" s="50"/>
@@ -18091,6 +18367,15 @@
       <c r="A20" s="34" t="s">
         <v>129</v>
       </c>
+      <c r="C20" t="s">
+        <v>661</v>
+      </c>
+      <c r="I20" t="s">
+        <v>663</v>
+      </c>
+      <c r="L20" s="66" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F21" s="51"/>
@@ -18235,6 +18520,17 @@
       <c r="C47" s="50"/>
       <c r="D47" s="5"/>
     </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>660</v>
+      </c>
+      <c r="F48" t="s">
+        <v>664</v>
+      </c>
+      <c r="L48" t="s">
+        <v>662</v>
+      </c>
+    </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C49" s="50"/>
       <c r="D49" s="50"/>
@@ -18282,7 +18578,9 @@
       <c r="B65" t="s">
         <v>561</v>
       </c>
-      <c r="F65" s="52"/>
+      <c r="F65" s="52" t="s">
+        <v>665</v>
+      </c>
       <c r="G65" s="52"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
@@ -18293,9 +18591,7 @@
       <c r="N65" s="52"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>562</v>
-      </c>
+      <c r="B66" s="49"/>
       <c r="C66" s="52"/>
       <c r="D66" s="52"/>
       <c r="E66" s="52"/>
@@ -18310,7 +18606,15 @@
       <c r="N66" s="52"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
       <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
       <c r="I67" s="52"/>
       <c r="J67" s="52"/>
       <c r="K67" s="52"/>
@@ -18319,8 +18623,15 @@
       <c r="N67" s="52"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="49" t="s">
+        <v>563</v>
+      </c>
       <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
       <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
       <c r="I68" s="52"/>
       <c r="J68" s="52"/>
       <c r="K68" s="52"/>
@@ -18330,7 +18641,7 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="49" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="C69" s="52"/>
       <c r="D69" s="52"/>
@@ -18346,7 +18657,9 @@
       <c r="N69" s="52"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="49"/>
+      <c r="B70" s="49" t="s">
+        <v>498</v>
+      </c>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
       <c r="E70" s="52"/>
@@ -18362,7 +18675,7 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="49" t="s">
-        <v>565</v>
+        <v>491</v>
       </c>
       <c r="C71" s="52"/>
       <c r="D71" s="52"/>
@@ -18379,7 +18692,7 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="49" t="s">
-        <v>563</v>
+        <v>492</v>
       </c>
       <c r="C72" s="52"/>
       <c r="D72" s="52"/>
@@ -18396,7 +18709,7 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="49" t="s">
-        <v>110</v>
+        <v>493</v>
       </c>
       <c r="C73" s="52"/>
       <c r="D73" s="52"/>
@@ -18413,7 +18726,7 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="49" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C74" s="52"/>
       <c r="D74" s="52"/>
@@ -18430,7 +18743,7 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="49" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="C75" s="52"/>
       <c r="D75" s="52"/>
@@ -18447,7 +18760,7 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="49" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="C76" s="52"/>
       <c r="D76" s="52"/>
@@ -18464,7 +18777,7 @@
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="49" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C77" s="52"/>
       <c r="D77" s="52"/>
@@ -18481,7 +18794,7 @@
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="49" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="52"/>
@@ -18497,42 +18810,16 @@
       <c r="N78" s="52"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="49" t="s">
-        <v>450</v>
-      </c>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="52"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="52"/>
+      <c r="B79" s="49"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="49" t="s">
-        <v>450</v>
-      </c>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="52"/>
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
+      <c r="B80" s="53" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="49" t="s">
-        <v>490</v>
+      <c r="B81" t="s">
+        <v>562</v>
       </c>
       <c r="C81" s="52"/>
       <c r="D81" s="52"/>
@@ -18549,7 +18836,7 @@
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="49" t="s">
-        <v>564</v>
+        <v>168</v>
       </c>
       <c r="C82" s="52"/>
       <c r="D82" s="52"/>
@@ -18563,14 +18850,6 @@
       <c r="L82" s="52"/>
       <c r="M82" s="52"/>
       <c r="N82" s="52"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="49"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="53" t="s">
-        <v>134</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/项目管理/进度计划/Demo-里程碑10/Demo-里程碑10计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑10/Demo-里程碑10计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑10/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="33920" windowHeight="19760" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑10" sheetId="1" r:id="rId1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="785">
   <si>
     <t>里程碑目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4780,10 +4775,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Jira Bug新增 个，总计 个，剩余 个未修复</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>里程碑9计划任务共81个，已完成65个，完成率80%</t>
   </si>
   <si>
@@ -4927,101 +4918,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>本里程碑延期内容均与美术有关，是否由于策划</t>
-    <rPh sb="0" eb="1">
-      <t>ben</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>li'cheng'bei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yan'qi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ner'iong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jun</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>mei'shu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>you'guan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>you'yu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ce'hua</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划和美术配合不紧密，因“等待”出现延期还是美术在制作过程中安排有问题？</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>mei'shu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>pei'he</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jin'mi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yin</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>chu'xian</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yan'qi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>hai'shi</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>mei'shu</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>zhi'zuo</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>guo'cheng</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>an'pai</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>you'wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>帆爷对于bug的重视程度不够，因为bug处理晚导致周版本内工作延期</t>
     <rPh sb="0" eb="1">
       <t>fan'ye</t>
@@ -5066,6 +4962,117 @@
       <t>yan'qi</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jira Bug新增614个，总计2702个，剩余62个未修复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本里程碑延期内容均与美术有关，是否由于策划和美术配合不紧密，因“等待”出现延期还是美术在制作过程中安排有问题？</t>
+    <rPh sb="19" eb="20">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>he</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>pei'he</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jin'mi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>guo'cheng</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>an'pai</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>you'wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp出现问题多数为ui问题，包括字色字号，界面布局以及UI动画，这些问题不但测试起来耗时，修改起来也容易反复，开发时尽量减少或规避该类问题</t>
+  </si>
+  <si>
+    <t>在开发过程中，如果美术UI出现改动应及时通告程序方，以防返工，同时，程序方在实现功能时出现与需求文档相悖的时候，也要及时告知策划，做好需求回归</t>
+  </si>
+  <si>
+    <t>测试报告问题摘录</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhai'lu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在做设计时要统筹全局，不能只考虑到当前的功能模块，要考虑到当前模块的设计是否会影响到其他模块，应极力杜绝因某一功能的设计而去动其他已经完备的设计的行为</t>
+  </si>
+  <si>
+    <t>测试过程中，表现层面的bug相对较多，逻辑层面的bug往往都是不小心配错，很少存在较严重的问题</t>
+  </si>
+  <si>
+    <t>测试过程中，出现了较多的低层次无意义的bug，比如挡血条，镜头错等问题，这些bug占用了不少的测试时间</t>
+  </si>
+  <si>
+    <t>测试过程中，出现了一些属于体验项的bug，因为没人验收或者需求不明确，占用了一些沟通时间</t>
+  </si>
+  <si>
+    <t>内容提交测试前请自测，避免过多无意义的bug，浪费各组时间</t>
+  </si>
+  <si>
+    <t>提交内容前需检查资源的完整性，避免脚本丢失碰撞盒丢失贴图丢失等问题</t>
+  </si>
+  <si>
+    <t>内容制作过程中，不按照文档进行的内容需事先与需求方沟通，回归好相关内容，并通知各组，以免浪费时间</t>
+  </si>
+  <si>
+    <t>对于表现层面的bug，体验人不同，感受就不同，希望需求方抽出人力和时间来验收一下，这样可以快速暴露出问题，以节约反复、多方勾兑所消耗的时间成本。</t>
+  </si>
+  <si>
+    <t>及时改bug，别等到周三开总结会时才知道有此bug</t>
   </si>
 </sst>
 </file>
@@ -5702,32 +5709,6 @@
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -5754,6 +5735,32 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="98">
     <dxf>
@@ -6873,7 +6880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6887,23 +6894,23 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="8" style="8" customWidth="1"/>
     <col min="3" max="3" width="7" style="8" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="21" style="4" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="10.1640625" style="4"/>
+    <col min="12" max="12" width="19.85546875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="10.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6914,7 +6921,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -6933,7 +6940,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
@@ -6949,7 +6956,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
@@ -6965,7 +6972,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>102</v>
       </c>
@@ -6982,7 +6989,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
@@ -6996,7 +7003,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -7010,7 +7017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>21</v>
@@ -7024,7 +7031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
@@ -7034,7 +7041,7 @@
       <c r="D9" s="6"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
         <v>26</v>
@@ -7044,7 +7051,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
         <v>27</v>
@@ -7054,14 +7061,14 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="9"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -7083,7 +7090,7 @@
       </c>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="8" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>29</v>
       </c>
@@ -7121,7 +7128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="8" customFormat="1">
       <c r="A15" s="18">
         <v>1</v>
       </c>
@@ -7151,7 +7158,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="8" customFormat="1">
       <c r="A16" s="18">
         <f>A15+1</f>
         <v>2</v>
@@ -7180,7 +7187,7 @@
       <c r="K16" s="67"/>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="63" customFormat="1">
       <c r="A17" s="65">
         <v>3</v>
       </c>
@@ -7208,7 +7215,7 @@
       <c r="K17" s="20"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="8" customFormat="1">
       <c r="A18" s="65">
         <v>4</v>
       </c>
@@ -7236,7 +7243,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="65">
         <f>A18+1</f>
         <v>5</v>
@@ -7265,7 +7272,7 @@
       <c r="K19" s="20"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="8" customFormat="1">
       <c r="A20" s="65">
         <f t="shared" ref="A20:A82" si="0">A19+1</f>
         <v>6</v>
@@ -7294,7 +7301,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7323,7 +7330,7 @@
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="65">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7352,7 +7359,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="8" customFormat="1">
       <c r="A23" s="65">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7383,7 +7390,7 @@
       <c r="K23" s="21"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="65">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7414,7 +7421,7 @@
       <c r="K24" s="20"/>
       <c r="L24" s="21"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="65">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7445,7 +7452,7 @@
       <c r="K25" s="23"/>
       <c r="L25" s="20"/>
     </row>
-    <row r="26" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="63" customFormat="1">
       <c r="A26" s="65">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7474,7 +7481,7 @@
       <c r="K26" s="23"/>
       <c r="L26" s="67"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="65">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7505,7 +7512,7 @@
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="65">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7536,7 +7543,7 @@
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="65">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7567,7 +7574,7 @@
       <c r="K29" s="23"/>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7598,7 +7605,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="65">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7629,7 +7636,7 @@
       <c r="K31" s="67"/>
       <c r="L31" s="20"/>
     </row>
-    <row r="32" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="63" customFormat="1">
       <c r="A32" s="65">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7660,7 +7667,7 @@
       <c r="K32" s="20"/>
       <c r="L32" s="21"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="65">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7693,7 +7700,7 @@
       <c r="K33" s="20"/>
       <c r="L33" s="21"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7720,7 +7727,7 @@
       <c r="K34" s="20"/>
       <c r="L34" s="21"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="65">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7751,7 +7758,7 @@
       <c r="K35" s="20"/>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="8" customFormat="1">
       <c r="A36" s="65">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7782,7 +7789,7 @@
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
     </row>
-    <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="8" customFormat="1">
       <c r="A37" s="65">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7809,7 +7816,7 @@
       <c r="K37" s="21"/>
       <c r="L37" s="20"/>
     </row>
-    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="8" customFormat="1">
       <c r="A38" s="65">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7836,7 +7843,7 @@
       <c r="K38" s="21"/>
       <c r="L38" s="20"/>
     </row>
-    <row r="39" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="64" customFormat="1">
       <c r="A39" s="65">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7863,7 +7870,7 @@
       <c r="K39" s="20"/>
       <c r="L39" s="67"/>
     </row>
-    <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="8" customFormat="1">
       <c r="A40" s="65">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7890,7 +7897,7 @@
       <c r="K40" s="21"/>
       <c r="L40" s="20"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="65">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7919,7 +7926,7 @@
       <c r="K41" s="60"/>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="8" customFormat="1">
       <c r="A42" s="65">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7946,7 +7953,7 @@
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="65">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7973,7 +7980,7 @@
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="65">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8000,7 +8007,7 @@
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
     </row>
-    <row r="45" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="8" customFormat="1">
       <c r="A45" s="65">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8027,7 +8034,7 @@
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
     </row>
-    <row r="46" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="8" customFormat="1">
       <c r="A46" s="65">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8054,7 +8061,7 @@
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="65">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8083,7 +8090,7 @@
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
     </row>
-    <row r="48" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="8" customFormat="1">
       <c r="A48" s="65">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8112,7 +8119,7 @@
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="65">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -8141,7 +8148,7 @@
       <c r="K49" s="23"/>
       <c r="L49" s="20"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="65">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8170,7 +8177,7 @@
       <c r="K50" s="23"/>
       <c r="L50" s="20"/>
     </row>
-    <row r="51" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="63" customFormat="1">
       <c r="A51" s="65">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -8199,7 +8206,7 @@
       <c r="K51" s="20"/>
       <c r="L51" s="67"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="65">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -8229,7 +8236,7 @@
       <c r="J52" s="20"/>
       <c r="L52" s="20"/>
     </row>
-    <row r="53" spans="1:12" ht="32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="30">
       <c r="A53" s="65">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -8258,7 +8265,7 @@
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="65">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8285,7 +8292,7 @@
       <c r="K54" s="67"/>
       <c r="L54" s="20"/>
     </row>
-    <row r="55" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="63" customFormat="1">
       <c r="A55" s="65">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -8314,7 +8321,7 @@
       <c r="K55" s="67"/>
       <c r="L55" s="67"/>
     </row>
-    <row r="56" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="63" customFormat="1">
       <c r="A56" s="65">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -8345,7 +8352,7 @@
       <c r="K56" s="67"/>
       <c r="L56" s="67"/>
     </row>
-    <row r="57" spans="1:12" s="63" customFormat="1" ht="32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="63" customFormat="1">
       <c r="A57" s="65">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -8376,7 +8383,7 @@
       <c r="K57" s="23"/>
       <c r="L57" s="67"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="65">
         <f>A59+1</f>
         <v>45</v>
@@ -8405,7 +8412,7 @@
       <c r="K58" s="67"/>
       <c r="L58" s="20"/>
     </row>
-    <row r="59" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="63" customFormat="1">
       <c r="A59" s="65">
         <f>A57+1</f>
         <v>44</v>
@@ -8436,7 +8443,7 @@
       <c r="K59" s="20"/>
       <c r="L59" s="67"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="65">
         <f>A58+1</f>
         <v>46</v>
@@ -8467,7 +8474,7 @@
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="65">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -8498,7 +8505,7 @@
       <c r="K61" s="23"/>
       <c r="L61" s="20"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="65">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -8529,7 +8536,7 @@
       <c r="K62" s="23"/>
       <c r="L62" s="20"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="65">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -8560,7 +8567,7 @@
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="65">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -8591,7 +8598,7 @@
       <c r="K64" s="67"/>
       <c r="L64" s="20"/>
     </row>
-    <row r="65" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="63" customFormat="1">
       <c r="A65" s="65">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -8622,7 +8629,7 @@
       <c r="K65" s="67"/>
       <c r="L65" s="67"/>
     </row>
-    <row r="66" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="63" customFormat="1">
       <c r="A66" s="65">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -8653,7 +8660,7 @@
       <c r="K66" s="20"/>
       <c r="L66" s="67"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="65">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -8684,7 +8691,7 @@
       <c r="K67" s="67"/>
       <c r="L67" s="20"/>
     </row>
-    <row r="68" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="63" customFormat="1">
       <c r="A68" s="65">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -8715,7 +8722,7 @@
       <c r="K68" s="67"/>
       <c r="L68" s="67"/>
     </row>
-    <row r="69" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="63" customFormat="1">
       <c r="A69" s="65">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -8746,7 +8753,7 @@
       <c r="K69" s="20"/>
       <c r="L69" s="67"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="65">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -8777,7 +8784,7 @@
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="65">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -8808,7 +8815,7 @@
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="65">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -8839,7 +8846,7 @@
       <c r="K72" s="67"/>
       <c r="L72" s="20"/>
     </row>
-    <row r="73" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" s="63" customFormat="1">
       <c r="A73" s="65">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -8870,7 +8877,7 @@
       </c>
       <c r="L73" s="67"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="65">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8901,7 +8908,7 @@
       </c>
       <c r="L74" s="20"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="65">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -8928,7 +8935,7 @@
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="65">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -8951,7 +8958,7 @@
       <c r="K76" s="67"/>
       <c r="L76" s="20"/>
     </row>
-    <row r="77" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="63" customFormat="1">
       <c r="A77" s="65">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -8978,7 +8985,7 @@
       <c r="K77" s="20"/>
       <c r="L77" s="67"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -9004,7 +9011,7 @@
       <c r="K78" s="21"/>
       <c r="L78" s="20"/>
     </row>
-    <row r="79" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="16" customHeight="1">
       <c r="A79" s="65">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -9023,7 +9030,7 @@
       <c r="K79" s="20"/>
       <c r="L79" s="21"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="65">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -9044,7 +9051,7 @@
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="65">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -9064,7 +9071,7 @@
       <c r="K81" s="23"/>
       <c r="L81" s="20"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="65">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -9085,7 +9092,7 @@
       <c r="K82" s="23"/>
       <c r="L82" s="20"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="65">
         <f t="shared" ref="A83:A120" si="1">A82+1</f>
         <v>69</v>
@@ -9105,7 +9112,7 @@
       <c r="K83" s="23"/>
       <c r="L83" s="20"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="65">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -9126,7 +9133,7 @@
       <c r="K84" s="23"/>
       <c r="L84" s="20"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="65">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -9147,7 +9154,7 @@
       <c r="K85" s="23"/>
       <c r="L85" s="20"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="65">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -9166,7 +9173,7 @@
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="65">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -9195,7 +9202,7 @@
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
     </row>
-    <row r="88" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" s="63" customFormat="1">
       <c r="A88" s="65">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -9224,7 +9231,7 @@
       <c r="K88" s="67"/>
       <c r="L88" s="67"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="65">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -9251,7 +9258,7 @@
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
     </row>
-    <row r="90" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="63" customFormat="1">
       <c r="A90" s="65">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -9280,7 +9287,7 @@
       <c r="K90" s="67"/>
       <c r="L90" s="67"/>
     </row>
-    <row r="91" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="63" customFormat="1">
       <c r="A91" s="65">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -9296,7 +9303,7 @@
       <c r="K91" s="67"/>
       <c r="L91" s="67"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="65">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -9315,7 +9322,7 @@
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="65">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -9344,7 +9351,7 @@
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
     </row>
-    <row r="94" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="17" customHeight="1">
       <c r="A94" s="65">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -9373,7 +9380,7 @@
       <c r="K94" s="20"/>
       <c r="L94" s="21"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="65">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -9402,7 +9409,7 @@
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="65">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -9431,7 +9438,7 @@
       <c r="K96" s="12"/>
       <c r="L96" s="21"/>
     </row>
-    <row r="97" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="17" customHeight="1">
       <c r="A97" s="65">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -9458,7 +9465,7 @@
       <c r="K97" s="12"/>
       <c r="L97" s="21"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="65">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -9487,7 +9494,7 @@
       <c r="K98" s="12"/>
       <c r="L98" s="21"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="65">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -9516,7 +9523,7 @@
       </c>
       <c r="L99" s="21"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="65">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -9545,7 +9552,7 @@
       <c r="K100" s="20"/>
       <c r="L100" s="21"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="65">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -9574,7 +9581,7 @@
       <c r="K101" s="20"/>
       <c r="L101" s="21"/>
     </row>
-    <row r="102" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="17" customHeight="1">
       <c r="A102" s="65">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -9603,7 +9610,7 @@
       <c r="K102" s="20"/>
       <c r="L102" s="21"/>
     </row>
-    <row r="103" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="17" customHeight="1">
       <c r="A103" s="65">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -9632,7 +9639,7 @@
       <c r="K103" s="12"/>
       <c r="L103" s="21"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="65">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -9661,7 +9668,7 @@
       <c r="K104" s="12"/>
       <c r="L104" s="21"/>
     </row>
-    <row r="105" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="63" customFormat="1">
       <c r="A105" s="65">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -9688,7 +9695,7 @@
       <c r="K105" s="12"/>
       <c r="L105" s="21"/>
     </row>
-    <row r="106" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="63" customFormat="1">
       <c r="A106" s="65">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -9708,7 +9715,7 @@
       <c r="K106" s="12"/>
       <c r="L106" s="21"/>
     </row>
-    <row r="107" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="63" customFormat="1">
       <c r="A107" s="65">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -9729,7 +9736,7 @@
       <c r="K107" s="20"/>
       <c r="L107" s="21"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="65">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -9750,7 +9757,7 @@
       <c r="K108" s="20"/>
       <c r="L108" s="21"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="65">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -9767,7 +9774,7 @@
       <c r="K109" s="20"/>
       <c r="L109" s="21"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="65">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -9786,7 +9793,7 @@
       <c r="K110" s="20"/>
       <c r="L110" s="21"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" s="65">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -9811,7 +9818,7 @@
       <c r="K111" s="20"/>
       <c r="L111" s="21"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="65">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -9834,7 +9841,7 @@
       <c r="K112" s="20"/>
       <c r="L112" s="21"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="65">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -9857,7 +9864,7 @@
       </c>
       <c r="L113" s="21"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="65">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -9880,7 +9887,7 @@
       </c>
       <c r="L114" s="21"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="65">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -9903,7 +9910,7 @@
       <c r="K115" s="20"/>
       <c r="L115" s="21"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="65">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -9920,7 +9927,7 @@
       <c r="K116" s="20"/>
       <c r="L116" s="21"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="65">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -9937,7 +9944,7 @@
       <c r="K117" s="20"/>
       <c r="L117" s="21"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="65">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -9952,7 +9959,7 @@
       <c r="J118" s="23"/>
       <c r="L118" s="20"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" s="65">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -9969,7 +9976,7 @@
       <c r="K119" s="20"/>
       <c r="L119" s="20"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="65">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -9986,7 +9993,7 @@
       <c r="K120" s="30"/>
       <c r="L120" s="20"/>
     </row>
-    <row r="121" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" s="32" customFormat="1">
       <c r="A121" s="18"/>
       <c r="B121" s="30"/>
       <c r="C121" s="30"/>
@@ -10000,7 +10007,7 @@
       <c r="K121" s="30"/>
       <c r="L121" s="30"/>
     </row>
-    <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15" customHeight="1">
       <c r="A122" s="18"/>
       <c r="B122" s="30"/>
       <c r="C122" s="30"/>
@@ -10014,7 +10021,7 @@
       <c r="K122" s="30"/>
       <c r="L122" s="30"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" s="18"/>
       <c r="B123" s="30"/>
       <c r="C123" s="30"/>
@@ -10028,7 +10035,7 @@
       <c r="K123" s="30"/>
       <c r="L123" s="30"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="A124" s="18"/>
       <c r="B124" s="30"/>
       <c r="C124" s="30"/>
@@ -10042,7 +10049,7 @@
       <c r="K124" s="30"/>
       <c r="L124" s="30"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125" s="18"/>
       <c r="B125" s="30"/>
       <c r="C125" s="30"/>
@@ -10056,7 +10063,7 @@
       <c r="K125" s="30"/>
       <c r="L125" s="30"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="18"/>
       <c r="B126" s="30"/>
       <c r="C126" s="30"/>
@@ -10070,7 +10077,7 @@
       <c r="K126" s="30"/>
       <c r="L126" s="30"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" s="18"/>
       <c r="L127" s="30"/>
     </row>
@@ -10371,6 +10378,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10385,36 +10397,36 @@
       <selection pane="bottomRight" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="68" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="77" customWidth="1"/>
-    <col min="6" max="6" width="29.5" style="76" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" style="63" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="63" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="77" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="77" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="76" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="63" customWidth="1"/>
     <col min="8" max="8" width="6" style="79" customWidth="1"/>
-    <col min="9" max="9" width="4.83203125" style="64" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.1640625" style="63" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" style="63" customWidth="1"/>
-    <col min="20" max="20" width="4.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.1640625" style="63" customWidth="1"/>
-    <col min="23" max="23" width="26.33203125" style="79" customWidth="1"/>
-    <col min="24" max="24" width="19.6640625" style="63" customWidth="1"/>
-    <col min="25" max="16384" width="10.1640625" style="63"/>
+    <col min="9" max="9" width="4.85546875" style="64" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" style="63" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" style="63" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" style="63" customWidth="1"/>
+    <col min="23" max="23" width="26.28515625" style="79" customWidth="1"/>
+    <col min="24" max="24" width="19.7109375" style="63" customWidth="1"/>
+    <col min="25" max="16384" width="10.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="M1" s="63" t="s">
         <v>602</v>
       </c>
@@ -10425,7 +10437,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="68" customFormat="1">
       <c r="B2" s="68" t="s">
         <v>572</v>
       </c>
@@ -10477,13 +10489,13 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="68" t="s">
         <v>573</v>
       </c>
       <c r="G3" s="75"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="B4" s="104" t="s">
         <v>134</v>
       </c>
@@ -10546,7 +10558,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="B5" s="84"/>
       <c r="G5" s="76" t="str">
         <f t="shared" si="0"/>
@@ -10577,7 +10589,7 @@
       <c r="V5" s="76"/>
       <c r="W5" s="97"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="B6" s="104" t="s">
         <v>135</v>
       </c>
@@ -10643,7 +10655,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="63"/>
       <c r="B7" s="84"/>
       <c r="G7" s="76" t="str">
@@ -10699,7 +10711,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="63"/>
       <c r="B8" s="84" t="s">
         <v>574</v>
@@ -10739,7 +10751,7 @@
       <c r="V8" s="76"/>
       <c r="W8" s="97"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="63"/>
       <c r="B9" s="75" t="s">
         <v>72</v>
@@ -10803,7 +10815,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="63"/>
       <c r="G10" s="76" t="str">
         <f t="shared" si="0"/>
@@ -10846,7 +10858,7 @@
       <c r="V10" s="76"/>
       <c r="W10" s="97"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="63"/>
       <c r="B11" s="84" t="s">
         <v>136</v>
@@ -10907,7 +10919,7 @@
       <c r="V11" s="76"/>
       <c r="W11" s="97"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="63"/>
       <c r="B12" s="63" t="s">
         <v>73</v>
@@ -10971,7 +10983,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="G13" s="76" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -11013,7 +11025,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="63"/>
       <c r="B14" s="84" t="s">
         <v>321</v>
@@ -11078,7 +11090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="63"/>
       <c r="B15" s="84" t="s">
         <v>118</v>
@@ -11143,7 +11155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="32">
       <c r="A16" s="63"/>
       <c r="B16" s="84" t="s">
         <v>436</v>
@@ -11209,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="A17" s="63"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -11231,7 +11243,7 @@
       <c r="V17" s="76"/>
       <c r="W17" s="97"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23">
       <c r="A18" s="63"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
@@ -11289,7 +11301,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="63"/>
       <c r="B19" s="84" t="s">
         <v>437</v>
@@ -11355,7 +11367,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="63"/>
       <c r="B20" s="84" t="s">
         <v>438</v>
@@ -11421,7 +11433,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="63"/>
       <c r="B21" s="84"/>
       <c r="C21" s="84"/>
@@ -11479,7 +11491,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="63"/>
       <c r="B22" s="84" t="s">
         <v>439</v>
@@ -11545,7 +11557,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="B23" s="84" t="s">
         <v>440</v>
       </c>
@@ -11610,7 +11622,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="B24" s="84"/>
       <c r="C24" s="84"/>
       <c r="D24" s="85"/>
@@ -11631,7 +11643,7 @@
       <c r="V24" s="76"/>
       <c r="W24" s="97"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="B25" s="123" t="s">
         <v>740</v>
       </c>
@@ -11654,7 +11666,7 @@
       <c r="V25" s="76"/>
       <c r="W25" s="97"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="B26" s="84"/>
       <c r="C26" s="84"/>
       <c r="D26" s="85"/>
@@ -11711,7 +11723,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="B27" s="84" t="s">
         <v>120</v>
       </c>
@@ -11768,7 +11780,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="G28" s="76" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -11822,7 +11834,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="G29" s="76" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -11877,7 +11889,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="63"/>
       <c r="B30" s="71" t="s">
         <v>575</v>
@@ -11912,7 +11924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" s="89" customFormat="1">
       <c r="A31" s="73"/>
       <c r="B31" s="86"/>
       <c r="C31" s="86"/>
@@ -11929,7 +11941,7 @@
       <c r="U31" s="91"/>
       <c r="W31" s="90"/>
     </row>
-    <row r="32" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" s="75" customFormat="1">
       <c r="A32" s="68" t="s">
         <v>74</v>
       </c>
@@ -11985,7 +11997,7 @@
       </c>
       <c r="W32" s="98"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="B33" s="68" t="s">
         <v>370</v>
       </c>
@@ -12034,7 +12046,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="G34" s="76" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
@@ -12080,7 +12092,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="G35" s="76" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
@@ -12122,7 +12134,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" s="75" customFormat="1">
       <c r="A36" s="105"/>
       <c r="B36" s="75" t="s">
         <v>376</v>
@@ -12182,7 +12194,7 @@
       <c r="V36" s="92"/>
       <c r="W36" s="107"/>
     </row>
-    <row r="37" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" s="75" customFormat="1">
       <c r="A37" s="105"/>
       <c r="B37" s="101" t="s">
         <v>592</v>
@@ -12242,7 +12254,7 @@
       <c r="V37" s="92"/>
       <c r="W37" s="107"/>
     </row>
-    <row r="38" spans="1:23" s="75" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="75" customFormat="1" ht="48">
       <c r="A38" s="105"/>
       <c r="B38" s="75" t="s">
         <v>369</v>
@@ -12304,7 +12316,7 @@
       <c r="V38" s="92"/>
       <c r="W38" s="107"/>
     </row>
-    <row r="39" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" s="75" customFormat="1">
       <c r="A39" s="105"/>
       <c r="B39" s="75" t="s">
         <v>441</v>
@@ -12364,7 +12376,7 @@
       <c r="V39" s="92"/>
       <c r="W39" s="107"/>
     </row>
-    <row r="40" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" s="75" customFormat="1">
       <c r="A40" s="105"/>
       <c r="D40" s="98"/>
       <c r="E40" s="83"/>
@@ -12417,7 +12429,7 @@
       <c r="V40" s="92"/>
       <c r="W40" s="107"/>
     </row>
-    <row r="41" spans="1:23" s="75" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" s="75" customFormat="1" ht="32">
       <c r="A41" s="105"/>
       <c r="B41" s="75" t="s">
         <v>109</v>
@@ -12485,7 +12497,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" s="75" customFormat="1">
       <c r="A42" s="105"/>
       <c r="B42" s="75" t="s">
         <v>377</v>
@@ -12545,7 +12557,7 @@
       <c r="V42" s="92"/>
       <c r="W42" s="107"/>
     </row>
-    <row r="43" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" s="75" customFormat="1">
       <c r="A43" s="105"/>
       <c r="B43" s="75" t="s">
         <v>378</v>
@@ -12605,7 +12617,7 @@
       <c r="V43" s="92"/>
       <c r="W43" s="107"/>
     </row>
-    <row r="44" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" s="75" customFormat="1">
       <c r="A44" s="105"/>
       <c r="B44" s="75" t="s">
         <v>379</v>
@@ -12667,7 +12679,7 @@
       <c r="V44" s="92"/>
       <c r="W44" s="107"/>
     </row>
-    <row r="45" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" s="75" customFormat="1">
       <c r="A45" s="105"/>
       <c r="B45" s="75" t="s">
         <v>380</v>
@@ -12729,7 +12741,7 @@
       <c r="V45" s="92"/>
       <c r="W45" s="107"/>
     </row>
-    <row r="46" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" s="75" customFormat="1">
       <c r="A46" s="105"/>
       <c r="B46" s="75" t="s">
         <v>610</v>
@@ -12789,7 +12801,7 @@
       <c r="V46" s="92"/>
       <c r="W46" s="107"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23">
       <c r="G47" s="76" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
@@ -12835,7 +12847,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23">
       <c r="B48" s="63" t="s">
         <v>595</v>
       </c>
@@ -12890,7 +12902,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23">
       <c r="B49" s="63" t="s">
         <v>596</v>
       </c>
@@ -12945,7 +12957,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23">
       <c r="D50" s="98"/>
       <c r="G50" s="76"/>
       <c r="H50" s="81"/>
@@ -12962,7 +12974,7 @@
       <c r="S50" s="76"/>
       <c r="T50" s="81"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23">
       <c r="B51" s="68" t="s">
         <v>616</v>
       </c>
@@ -12982,7 +12994,7 @@
       <c r="S51" s="76"/>
       <c r="T51" s="81"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23">
       <c r="G52" s="76" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
@@ -13028,7 +13040,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23">
       <c r="B53" s="63" t="s">
         <v>597</v>
       </c>
@@ -13083,7 +13095,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23">
       <c r="B54" s="63" t="s">
         <v>598</v>
       </c>
@@ -13138,7 +13150,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23">
       <c r="G55" s="76" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
@@ -13184,7 +13196,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23">
       <c r="B56" s="63" t="s">
         <v>599</v>
       </c>
@@ -13239,7 +13251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23">
       <c r="B57" s="63" t="s">
         <v>600</v>
       </c>
@@ -13294,7 +13306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23">
       <c r="G58" s="76" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
@@ -13340,7 +13352,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23">
       <c r="B59" s="68" t="s">
         <v>614</v>
       </c>
@@ -13389,7 +13401,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23">
       <c r="G60" s="76" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
@@ -13435,7 +13447,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" s="75" customFormat="1">
       <c r="A61" s="105"/>
       <c r="B61" s="75" t="s">
         <v>601</v>
@@ -13495,7 +13507,7 @@
       <c r="V61" s="92"/>
       <c r="W61" s="107"/>
     </row>
-    <row r="62" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" s="75" customFormat="1">
       <c r="A62" s="105"/>
       <c r="B62" s="75" t="s">
         <v>594</v>
@@ -13555,7 +13567,7 @@
       <c r="V62" s="92"/>
       <c r="W62" s="107"/>
     </row>
-    <row r="63" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" s="75" customFormat="1">
       <c r="A63" s="105"/>
       <c r="D63" s="98"/>
       <c r="E63" s="83"/>
@@ -13608,7 +13620,7 @@
       <c r="V63" s="92"/>
       <c r="W63" s="107"/>
     </row>
-    <row r="64" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" s="75" customFormat="1">
       <c r="A64" s="105"/>
       <c r="B64" s="75" t="s">
         <v>608</v>
@@ -13638,7 +13650,7 @@
       <c r="V64" s="92"/>
       <c r="W64" s="107"/>
     </row>
-    <row r="65" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" s="75" customFormat="1">
       <c r="A65" s="105"/>
       <c r="B65" s="75" t="s">
         <v>609</v>
@@ -13668,7 +13680,7 @@
       <c r="V65" s="92"/>
       <c r="W65" s="107"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23">
       <c r="D66" s="79"/>
       <c r="G66" s="76" t="str">
         <f t="shared" si="12"/>
@@ -13717,7 +13729,7 @@
       <c r="V66" s="76"/>
       <c r="W66" s="97"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23">
       <c r="B67" s="63" t="s">
         <v>609</v>
       </c>
@@ -13768,7 +13780,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23">
       <c r="G68" s="76"/>
       <c r="H68" s="81"/>
       <c r="J68" s="76"/>
@@ -13780,7 +13792,7 @@
       <c r="S68" s="76"/>
       <c r="T68" s="81"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23">
       <c r="B69" s="68" t="s">
         <v>615</v>
       </c>
@@ -13795,7 +13807,7 @@
       <c r="S69" s="76"/>
       <c r="T69" s="81"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23">
       <c r="G70" s="76"/>
       <c r="H70" s="81"/>
       <c r="J70" s="76"/>
@@ -13807,7 +13819,7 @@
       <c r="S70" s="76"/>
       <c r="T70" s="81"/>
     </row>
-    <row r="71" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" s="75" customFormat="1">
       <c r="B71" s="75" t="s">
         <v>75</v>
       </c>
@@ -13873,7 +13885,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23">
       <c r="A72" s="63"/>
       <c r="B72" s="63" t="s">
         <v>362</v>
@@ -13926,7 +13938,7 @@
       <c r="V72" s="76"/>
       <c r="W72" s="97"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23">
       <c r="A73" s="63"/>
       <c r="B73" s="63" t="s">
         <v>371</v>
@@ -13979,7 +13991,7 @@
       <c r="V73" s="76"/>
       <c r="W73" s="97"/>
     </row>
-    <row r="74" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23">
       <c r="B74" s="78" t="s">
         <v>577</v>
       </c>
@@ -14046,7 +14058,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23">
       <c r="B75" s="63" t="s">
         <v>578</v>
       </c>
@@ -14109,7 +14121,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23">
       <c r="A76" s="63"/>
       <c r="B76" s="71" t="s">
         <v>137</v>
@@ -14157,7 +14169,7 @@
       <c r="V76" s="76"/>
       <c r="W76" s="97"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23">
       <c r="G77" s="76"/>
       <c r="H77" s="81"/>
       <c r="I77" s="82"/>
@@ -14173,7 +14185,7 @@
       <c r="S77" s="76"/>
       <c r="T77" s="81"/>
     </row>
-    <row r="78" spans="1:23" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" s="89" customFormat="1">
       <c r="A78" s="73"/>
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
@@ -14190,7 +14202,7 @@
       <c r="U78" s="91"/>
       <c r="W78" s="90"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23">
       <c r="A79" s="68" t="s">
         <v>579</v>
       </c>
@@ -14240,7 +14252,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23">
       <c r="A80" s="63"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -14266,7 +14278,7 @@
       <c r="S80" s="76"/>
       <c r="T80" s="81"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23">
       <c r="A81" s="63"/>
       <c r="B81" s="68" t="s">
         <v>370</v>
@@ -14294,7 +14306,7 @@
       <c r="S81" s="76"/>
       <c r="T81" s="81"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23">
       <c r="A82" s="63"/>
       <c r="B82" s="68"/>
       <c r="C82" s="75"/>
@@ -14320,7 +14332,7 @@
       <c r="S82" s="76"/>
       <c r="T82" s="81"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23">
       <c r="A83" s="63"/>
       <c r="B83" s="83" t="s">
         <v>442</v>
@@ -14353,7 +14365,7 @@
       <c r="S83" s="76"/>
       <c r="T83" s="81"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23">
       <c r="A84" s="63"/>
       <c r="B84" s="83" t="s">
         <v>368</v>
@@ -14389,7 +14401,7 @@
       <c r="S84" s="76"/>
       <c r="T84" s="81"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23">
       <c r="A85" s="63"/>
       <c r="B85" s="83" t="s">
         <v>375</v>
@@ -14422,7 +14434,7 @@
       <c r="S85" s="76"/>
       <c r="T85" s="81"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23">
       <c r="A86" s="63"/>
       <c r="B86" s="75" t="s">
         <v>444</v>
@@ -14457,7 +14469,7 @@
       <c r="V86" s="76"/>
       <c r="W86" s="97"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23">
       <c r="G87" s="76" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
@@ -14467,7 +14479,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23">
       <c r="G88" s="76" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
@@ -14477,7 +14489,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23">
       <c r="A89" s="63"/>
       <c r="B89" s="112" t="s">
         <v>158</v>
@@ -14510,7 +14522,7 @@
       <c r="S89" s="76"/>
       <c r="T89" s="81"/>
     </row>
-    <row r="90" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="32">
       <c r="A90" s="63"/>
       <c r="B90" s="75" t="s">
         <v>141</v>
@@ -14569,7 +14581,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23">
       <c r="B91" s="75" t="s">
         <v>105</v>
       </c>
@@ -14624,7 +14636,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23">
       <c r="B92" s="75" t="s">
         <v>115</v>
       </c>
@@ -14679,7 +14691,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23">
       <c r="B93" s="75" t="s">
         <v>741</v>
       </c>
@@ -14704,7 +14716,7 @@
       <c r="S93" s="76"/>
       <c r="T93" s="81"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23">
       <c r="G94" s="76" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
@@ -14714,7 +14726,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23">
       <c r="B95" s="63" t="s">
         <v>611</v>
       </c>
@@ -14733,11 +14745,11 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23">
       <c r="G96" s="76"/>
       <c r="H96" s="81"/>
     </row>
-    <row r="97" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="63" customFormat="1">
       <c r="A97" s="68"/>
       <c r="B97" s="68" t="s">
         <v>616</v>
@@ -14751,7 +14763,7 @@
       <c r="O97" s="64"/>
       <c r="R97" s="64"/>
     </row>
-    <row r="98" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="63" customFormat="1">
       <c r="A98" s="68"/>
       <c r="D98" s="77"/>
       <c r="E98" s="77"/>
@@ -14763,7 +14775,7 @@
       <c r="O98" s="64"/>
       <c r="R98" s="64"/>
     </row>
-    <row r="99" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="63" customFormat="1">
       <c r="A99" s="68"/>
       <c r="D99" s="77"/>
       <c r="E99" s="77"/>
@@ -14775,7 +14787,7 @@
       <c r="O99" s="64"/>
       <c r="R99" s="64"/>
     </row>
-    <row r="100" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="63" customFormat="1">
       <c r="B100" s="78" t="s">
         <v>139</v>
       </c>
@@ -14810,7 +14822,7 @@
       <c r="S100" s="76"/>
       <c r="T100" s="81"/>
     </row>
-    <row r="101" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="63" customFormat="1">
       <c r="A101" s="68"/>
       <c r="B101" s="83" t="s">
         <v>329</v>
@@ -14835,7 +14847,7 @@
       <c r="O101" s="64"/>
       <c r="R101" s="64"/>
     </row>
-    <row r="102" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="63" customFormat="1">
       <c r="A102" s="68"/>
       <c r="B102" s="83" t="s">
         <v>612</v>
@@ -14854,7 +14866,7 @@
       <c r="O102" s="64"/>
       <c r="R102" s="64"/>
     </row>
-    <row r="103" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="63" customFormat="1">
       <c r="A103" s="68"/>
       <c r="D103" s="77"/>
       <c r="E103" s="77"/>
@@ -14866,7 +14878,7 @@
       <c r="O103" s="64"/>
       <c r="R103" s="64"/>
     </row>
-    <row r="104" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" s="63" customFormat="1">
       <c r="A104" s="68"/>
       <c r="B104" s="63" t="s">
         <v>613</v>
@@ -14885,7 +14897,7 @@
       <c r="O104" s="64"/>
       <c r="R104" s="64"/>
     </row>
-    <row r="105" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="63" customFormat="1">
       <c r="A105" s="68"/>
       <c r="B105" s="63" t="s">
         <v>609</v>
@@ -14942,7 +14954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="63" customFormat="1">
       <c r="A106" s="68"/>
       <c r="D106" s="77"/>
       <c r="E106" s="77"/>
@@ -14954,7 +14966,7 @@
       <c r="O106" s="64"/>
       <c r="R106" s="64"/>
     </row>
-    <row r="107" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="63" customFormat="1">
       <c r="A107" s="68"/>
       <c r="B107" s="68" t="s">
         <v>614</v>
@@ -15007,7 +15019,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="63" customFormat="1">
       <c r="A108" s="68"/>
       <c r="D108" s="77"/>
       <c r="E108" s="77"/>
@@ -15019,7 +15031,7 @@
       <c r="O108" s="64"/>
       <c r="R108" s="64"/>
     </row>
-    <row r="109" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" s="63" customFormat="1">
       <c r="A109" s="68"/>
       <c r="B109" s="83"/>
       <c r="D109" s="77"/>
@@ -15032,7 +15044,7 @@
       <c r="O109" s="64"/>
       <c r="R109" s="64"/>
     </row>
-    <row r="110" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" s="63" customFormat="1">
       <c r="A110" s="68"/>
       <c r="B110" s="83" t="s">
         <v>617</v>
@@ -15057,7 +15069,7 @@
       <c r="O110" s="64"/>
       <c r="R110" s="64"/>
     </row>
-    <row r="111" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" s="63" customFormat="1">
       <c r="B111" s="78" t="s">
         <v>580</v>
       </c>
@@ -15116,7 +15128,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" s="63" customFormat="1">
       <c r="B112" s="78" t="s">
         <v>114</v>
       </c>
@@ -15172,7 +15184,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23">
       <c r="A113" s="63"/>
       <c r="B113" s="78" t="s">
         <v>117</v>
@@ -15208,7 +15220,7 @@
       <c r="S113" s="76"/>
       <c r="T113" s="81"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23">
       <c r="G119" s="76" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
@@ -15218,7 +15230,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23">
       <c r="B120" s="99" t="s">
         <v>137</v>
       </c>
@@ -15253,7 +15265,7 @@
       <c r="S120" s="76"/>
       <c r="T120" s="81"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23">
       <c r="B121" s="75"/>
       <c r="G121" s="76" t="str">
         <f t="shared" si="22"/>
@@ -15276,7 +15288,7 @@
       <c r="S121" s="76"/>
       <c r="T121" s="81"/>
     </row>
-    <row r="122" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23">
       <c r="B122" s="78" t="s">
         <v>79</v>
       </c>
@@ -15336,7 +15348,7 @@
       </c>
       <c r="U122" s="63"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23">
       <c r="B123" s="63" t="s">
         <v>78</v>
       </c>
@@ -15392,7 +15404,7 @@
       </c>
       <c r="U123" s="63"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23">
       <c r="B125" s="78"/>
       <c r="C125" s="78"/>
       <c r="G125" s="76"/>
@@ -15411,7 +15423,7 @@
       <c r="T125" s="81"/>
       <c r="U125" s="63"/>
     </row>
-    <row r="126" spans="1:23" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" s="89" customFormat="1">
       <c r="A126" s="73"/>
       <c r="D126" s="87"/>
       <c r="E126" s="87"/>
@@ -15425,7 +15437,7 @@
       <c r="U126" s="91"/>
       <c r="W126" s="90"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23">
       <c r="A127" s="68" t="s">
         <v>581</v>
       </c>
@@ -15481,7 +15493,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="128" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" s="64" customFormat="1">
       <c r="A128" s="68"/>
       <c r="B128" s="63"/>
       <c r="C128" s="95"/>
@@ -15541,7 +15553,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" s="64" customFormat="1">
       <c r="A129" s="68"/>
       <c r="B129" s="63" t="s">
         <v>359</v>
@@ -15571,7 +15583,7 @@
       <c r="V129" s="76"/>
       <c r="W129" s="97"/>
     </row>
-    <row r="130" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" s="75" customFormat="1">
       <c r="A130" s="105"/>
       <c r="B130" s="106"/>
       <c r="D130" s="95"/>
@@ -15595,7 +15607,7 @@
       <c r="V130" s="92"/>
       <c r="W130" s="107"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23">
       <c r="B131" s="102" t="s">
         <v>110</v>
       </c>
@@ -15661,7 +15673,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23">
       <c r="B132" s="75"/>
       <c r="D132" s="95"/>
       <c r="G132" s="76"/>
@@ -15671,7 +15683,7 @@
       <c r="S132" s="76"/>
       <c r="V132" s="76"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23">
       <c r="A133" s="63"/>
       <c r="B133" s="102" t="s">
         <v>445</v>
@@ -15700,7 +15712,7 @@
       <c r="V133" s="76"/>
       <c r="W133" s="97"/>
     </row>
-    <row r="134" spans="1:23" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" s="64" customFormat="1" ht="32">
       <c r="A134" s="68"/>
       <c r="B134" s="102" t="s">
         <v>113</v>
@@ -15768,7 +15780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" s="64" customFormat="1">
       <c r="A135" s="68"/>
       <c r="B135" s="103" t="s">
         <v>145</v>
@@ -15836,7 +15848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23">
       <c r="A136" s="63"/>
       <c r="B136" s="102" t="s">
         <v>381</v>
@@ -15865,7 +15877,7 @@
       <c r="V136" s="76"/>
       <c r="W136" s="97"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23">
       <c r="D137" s="95"/>
       <c r="G137" s="76"/>
       <c r="J137" s="76"/>
@@ -15878,7 +15890,7 @@
       <c r="T137" s="100"/>
       <c r="V137" s="76"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23">
       <c r="G138" s="76" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve"> </v>
@@ -15932,7 +15944,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="139" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" s="68" customFormat="1">
       <c r="B139" s="71" t="s">
         <v>571</v>
       </c>
@@ -15973,12 +15985,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23">
       <c r="B141" s="68" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23">
       <c r="B142" s="68"/>
       <c r="G142" s="76" t="str">
         <f t="shared" ref="G142:G155" si="63">IF($E142=1,$B142," ")</f>
@@ -15989,7 +16001,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23">
       <c r="B143" s="101" t="s">
         <v>449</v>
       </c>
@@ -16024,7 +16036,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23">
       <c r="A144" s="63"/>
       <c r="B144" s="75" t="s">
         <v>446</v>
@@ -16059,7 +16071,7 @@
       <c r="V144" s="76"/>
       <c r="W144" s="97"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23">
       <c r="A145" s="63"/>
       <c r="B145" s="75" t="s">
         <v>447</v>
@@ -16094,7 +16106,7 @@
       <c r="V145" s="76"/>
       <c r="W145" s="97"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23">
       <c r="B146" s="63" t="s">
         <v>360</v>
       </c>
@@ -16153,7 +16165,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23">
       <c r="B147" s="63" t="s">
         <v>656</v>
       </c>
@@ -16190,7 +16202,7 @@
       <c r="T147" s="100"/>
       <c r="V147" s="76"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23">
       <c r="D148" s="95"/>
       <c r="G148" s="76"/>
       <c r="J148" s="76"/>
@@ -16203,7 +16215,7 @@
       <c r="T148" s="100"/>
       <c r="V148" s="76"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23">
       <c r="B149" s="63" t="s">
         <v>144</v>
       </c>
@@ -16266,7 +16278,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23">
       <c r="A150" s="63"/>
       <c r="B150" s="75" t="s">
         <v>448</v>
@@ -16316,7 +16328,7 @@
       <c r="V150" s="76"/>
       <c r="W150" s="97"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23">
       <c r="B151" s="75" t="s">
         <v>146</v>
       </c>
@@ -16379,7 +16391,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23">
       <c r="B152" s="63" t="s">
         <v>372</v>
       </c>
@@ -16418,7 +16430,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23">
       <c r="G153" s="76" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve"> </v>
@@ -16448,7 +16460,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23">
       <c r="B154" s="113" t="s">
         <v>327</v>
       </c>
@@ -16492,7 +16504,7 @@
       <c r="S154" s="76"/>
       <c r="T154" s="81"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23">
       <c r="B155" s="63" t="s">
         <v>374</v>
       </c>
@@ -16531,15 +16543,15 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23">
       <c r="B157" s="68" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23">
       <c r="B158" s="68"/>
     </row>
-    <row r="159" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" s="64" customFormat="1">
       <c r="A159" s="68"/>
       <c r="B159" s="63" t="s">
         <v>112</v>
@@ -16599,7 +16611,7 @@
       <c r="V159" s="63"/>
       <c r="W159" s="79"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23">
       <c r="B160" s="63" t="s">
         <v>111</v>
       </c>
@@ -16654,7 +16666,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23">
       <c r="G161" s="76"/>
       <c r="H161" s="81"/>
       <c r="I161" s="82"/>
@@ -16670,7 +16682,7 @@
       <c r="S161" s="76"/>
       <c r="T161" s="81"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23">
       <c r="B162" s="63" t="s">
         <v>618</v>
       </c>
@@ -16695,7 +16707,7 @@
       <c r="S162" s="76"/>
       <c r="T162" s="81"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23">
       <c r="B163" s="63" t="s">
         <v>111</v>
       </c>
@@ -16720,7 +16732,7 @@
       <c r="S163" s="76"/>
       <c r="T163" s="81"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23">
       <c r="G164" s="76"/>
       <c r="H164" s="81"/>
       <c r="I164" s="82"/>
@@ -16736,7 +16748,7 @@
       <c r="S164" s="76"/>
       <c r="T164" s="81"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23">
       <c r="B165" s="68" t="s">
         <v>614</v>
       </c>
@@ -16785,7 +16797,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23">
       <c r="B166" s="95"/>
       <c r="C166" s="95"/>
       <c r="D166" s="95"/>
@@ -16819,7 +16831,7 @@
       <c r="S166" s="76"/>
       <c r="T166" s="81"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23">
       <c r="B167" s="75" t="s">
         <v>373</v>
       </c>
@@ -16874,7 +16886,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23">
       <c r="B168" s="95"/>
       <c r="C168" s="95"/>
       <c r="D168" s="95"/>
@@ -16893,7 +16905,7 @@
       <c r="S168" s="76"/>
       <c r="T168" s="81"/>
     </row>
-    <row r="169" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" s="64" customFormat="1">
       <c r="A169" s="68"/>
       <c r="B169" s="75" t="s">
         <v>147</v>
@@ -16932,7 +16944,7 @@
       <c r="V169" s="63"/>
       <c r="W169" s="79"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23">
       <c r="B170" s="95"/>
       <c r="C170" s="95"/>
       <c r="D170" s="95"/>
@@ -16951,7 +16963,7 @@
       <c r="S170" s="76"/>
       <c r="T170" s="81"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23">
       <c r="B171" s="95" t="s">
         <v>361</v>
       </c>
@@ -16992,7 +17004,7 @@
       <c r="S171" s="76"/>
       <c r="T171" s="81"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23">
       <c r="B172" s="95" t="s">
         <v>365</v>
       </c>
@@ -17028,7 +17040,7 @@
       <c r="S172" s="76"/>
       <c r="T172" s="81"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23">
       <c r="M177" s="76" t="str">
         <f t="shared" si="65"/>
         <v xml:space="preserve"> </v>
@@ -17042,7 +17054,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23">
       <c r="B178" s="71" t="s">
         <v>137</v>
       </c>
@@ -17111,7 +17123,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23">
       <c r="P179" s="76" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
@@ -17121,7 +17133,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="180" spans="1:23" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" s="89" customFormat="1">
       <c r="D180" s="87"/>
       <c r="E180" s="87"/>
       <c r="F180" s="88"/>
@@ -17135,7 +17147,7 @@
       <c r="U180" s="91"/>
       <c r="W180" s="90"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23">
       <c r="A181" s="68" t="s">
         <v>582</v>
       </c>
@@ -17147,7 +17159,7 @@
       <c r="I181" s="82"/>
       <c r="J181" s="75"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23">
       <c r="A182" s="63"/>
       <c r="B182" s="75"/>
       <c r="G182" s="76" t="str">
@@ -17173,7 +17185,7 @@
       <c r="V182" s="76"/>
       <c r="W182" s="97"/>
     </row>
-    <row r="183" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23">
       <c r="B183" s="63" t="s">
         <v>113</v>
       </c>
@@ -17236,7 +17248,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23">
       <c r="B184" s="75" t="s">
         <v>714</v>
       </c>
@@ -17275,7 +17287,7 @@
       <c r="V184" s="76"/>
       <c r="W184" s="97"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23">
       <c r="A185" s="63"/>
       <c r="B185" s="75" t="s">
         <v>148</v>
@@ -17303,7 +17315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23">
       <c r="A186" s="63"/>
       <c r="B186" s="75"/>
       <c r="G186" s="76" t="str">
@@ -17317,7 +17329,7 @@
       <c r="V186" s="76"/>
       <c r="W186" s="97"/>
     </row>
-    <row r="187" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" s="68" customFormat="1">
       <c r="B187" s="71"/>
       <c r="C187" s="71"/>
       <c r="D187" s="69"/>
@@ -17342,7 +17354,7 @@
       <c r="U187" s="72"/>
       <c r="W187" s="71"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23">
       <c r="A188" s="63"/>
       <c r="B188" s="68" t="s">
         <v>370</v>
@@ -17356,13 +17368,13 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23">
       <c r="A189" s="63"/>
       <c r="B189" s="68"/>
       <c r="G189" s="76"/>
       <c r="H189" s="81"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23">
       <c r="A190" s="63"/>
       <c r="B190" s="63" t="s">
         <v>382</v>
@@ -17406,7 +17418,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23">
       <c r="A191" s="63"/>
       <c r="B191" s="75" t="s">
         <v>648</v>
@@ -17464,7 +17476,7 @@
       <c r="V191" s="76"/>
       <c r="W191" s="97"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23">
       <c r="B192" s="63" t="s">
         <v>652</v>
       </c>
@@ -17508,7 +17520,7 @@
       </c>
       <c r="W192" s="63"/>
     </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:23">
       <c r="B193" s="63" t="s">
         <v>646</v>
       </c>
@@ -17543,7 +17555,7 @@
       <c r="Q193" s="81"/>
       <c r="W193" s="63"/>
     </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:23">
       <c r="B194" s="63" t="s">
         <v>653</v>
       </c>
@@ -17578,7 +17590,7 @@
       <c r="Q194" s="81"/>
       <c r="W194" s="63"/>
     </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:23">
       <c r="B195" s="63" t="s">
         <v>647</v>
       </c>
@@ -17613,7 +17625,7 @@
       <c r="Q195" s="81"/>
       <c r="W195" s="63"/>
     </row>
-    <row r="196" spans="2:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:23">
       <c r="B196" s="63" t="s">
         <v>366</v>
       </c>
@@ -17660,7 +17672,7 @@
       </c>
       <c r="W196" s="63"/>
     </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:23">
       <c r="B197" s="63" t="s">
         <v>655</v>
       </c>
@@ -17692,7 +17704,7 @@
       <c r="Q197" s="81"/>
       <c r="W197" s="63"/>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:23">
       <c r="B198" s="63" t="s">
         <v>660</v>
       </c>
@@ -17724,7 +17736,7 @@
       <c r="Q198" s="81"/>
       <c r="W198" s="63"/>
     </row>
-    <row r="199" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:23">
       <c r="G199" s="76"/>
       <c r="H199" s="81"/>
       <c r="J199" s="76"/>
@@ -17735,7 +17747,7 @@
       <c r="Q199" s="81"/>
       <c r="W199" s="63"/>
     </row>
-    <row r="200" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:23">
       <c r="B200" s="63" t="s">
         <v>649</v>
       </c>
@@ -17755,7 +17767,7 @@
       <c r="Q200" s="81"/>
       <c r="W200" s="63"/>
     </row>
-    <row r="201" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:23">
       <c r="B201" s="63" t="s">
         <v>650</v>
       </c>
@@ -17775,7 +17787,7 @@
       <c r="Q201" s="81"/>
       <c r="W201" s="63"/>
     </row>
-    <row r="202" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:23">
       <c r="B202" s="63" t="s">
         <v>651</v>
       </c>
@@ -17795,7 +17807,7 @@
       <c r="Q202" s="81"/>
       <c r="W202" s="63"/>
     </row>
-    <row r="203" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:23">
       <c r="B203" s="63" t="s">
         <v>644</v>
       </c>
@@ -17815,7 +17827,7 @@
       <c r="Q203" s="81"/>
       <c r="W203" s="63"/>
     </row>
-    <row r="204" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:23">
       <c r="B204" s="63" t="s">
         <v>645</v>
       </c>
@@ -17835,7 +17847,7 @@
       <c r="Q204" s="81"/>
       <c r="W204" s="63"/>
     </row>
-    <row r="205" spans="2:23" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:23" s="78" customFormat="1">
       <c r="B205" s="78" t="s">
         <v>325</v>
       </c>
@@ -17881,7 +17893,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="207" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:23">
       <c r="B207" s="63" t="s">
         <v>619</v>
       </c>
@@ -17901,7 +17913,7 @@
       <c r="Q207" s="81"/>
       <c r="W207" s="63"/>
     </row>
-    <row r="208" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:23">
       <c r="B208" s="68"/>
       <c r="G208" s="76"/>
       <c r="H208" s="81"/>
@@ -17913,13 +17925,13 @@
       <c r="Q208" s="81"/>
       <c r="W208" s="63"/>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23">
       <c r="B209" s="68" t="s">
         <v>616</v>
       </c>
       <c r="W209" s="63"/>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23">
       <c r="G210" s="76" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
@@ -17954,7 +17966,7 @@
       </c>
       <c r="W210" s="63"/>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23">
       <c r="B211" s="63" t="s">
         <v>323</v>
       </c>
@@ -18005,7 +18017,7 @@
       <c r="U211" s="63"/>
       <c r="W211" s="63"/>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23">
       <c r="B212" s="63" t="s">
         <v>324</v>
       </c>
@@ -18056,7 +18068,7 @@
       <c r="U212" s="63"/>
       <c r="W212" s="63"/>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23">
       <c r="G213" s="76"/>
       <c r="H213" s="81"/>
       <c r="J213" s="76"/>
@@ -18067,7 +18079,7 @@
       <c r="Q213" s="81"/>
       <c r="W213" s="63"/>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23">
       <c r="G214" s="76"/>
       <c r="H214" s="81"/>
       <c r="J214" s="76"/>
@@ -18077,7 +18089,7 @@
       <c r="P214" s="76"/>
       <c r="Q214" s="81"/>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23">
       <c r="G215" s="76"/>
       <c r="H215" s="81"/>
       <c r="J215" s="76"/>
@@ -18087,7 +18099,7 @@
       <c r="P215" s="76"/>
       <c r="Q215" s="81"/>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23">
       <c r="G216" s="76"/>
       <c r="H216" s="81"/>
       <c r="J216" s="76"/>
@@ -18097,7 +18109,7 @@
       <c r="P216" s="76"/>
       <c r="Q216" s="81"/>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23">
       <c r="G217" s="76"/>
       <c r="H217" s="81"/>
       <c r="J217" s="76"/>
@@ -18107,7 +18119,7 @@
       <c r="P217" s="76"/>
       <c r="Q217" s="81"/>
     </row>
-    <row r="218" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" s="68" customFormat="1">
       <c r="B218" s="108" t="s">
         <v>121</v>
       </c>
@@ -18155,7 +18167,7 @@
       <c r="U218" s="72"/>
       <c r="W218" s="71"/>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23">
       <c r="G219" s="76"/>
       <c r="H219" s="81"/>
       <c r="J219" s="76"/>
@@ -18165,7 +18177,7 @@
       <c r="P219" s="76"/>
       <c r="Q219" s="81"/>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23">
       <c r="G220" s="76"/>
       <c r="H220" s="81"/>
       <c r="J220" s="76"/>
@@ -18175,7 +18187,7 @@
       <c r="P220" s="76"/>
       <c r="Q220" s="81"/>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23">
       <c r="A223" s="63"/>
       <c r="B223" s="63" t="s">
         <v>81</v>
@@ -18237,7 +18249,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23">
       <c r="G224" s="76" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
@@ -18271,7 +18283,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23">
       <c r="B225" s="71" t="s">
         <v>137</v>
       </c>
@@ -18301,7 +18313,7 @@
       </c>
       <c r="W225" s="63"/>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23">
       <c r="A227" s="63"/>
       <c r="B227" s="68" t="s">
         <v>82</v>
@@ -18333,7 +18345,7 @@
       </c>
       <c r="W227" s="63"/>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23">
       <c r="A231" s="63"/>
       <c r="G231" s="68" t="s">
         <v>84</v>
@@ -18360,7 +18372,7 @@
       </c>
       <c r="W231" s="63"/>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23">
       <c r="A233" s="63"/>
       <c r="G233" s="63" t="s">
         <v>149</v>
@@ -18376,7 +18388,7 @@
       </c>
       <c r="W233" s="63"/>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23">
       <c r="A234" s="63"/>
       <c r="G234" s="63" t="s">
         <v>97</v>
@@ -18390,17 +18402,17 @@
       <c r="U234" s="63"/>
       <c r="W234" s="63"/>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23">
       <c r="A235" s="63"/>
       <c r="U235" s="63"/>
       <c r="W235" s="63"/>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23">
       <c r="A236" s="63"/>
       <c r="U236" s="63"/>
       <c r="W236" s="63"/>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23">
       <c r="A237" s="63"/>
       <c r="G237" s="68" t="s">
         <v>85</v>
@@ -18428,7 +18440,7 @@
       <c r="U237" s="63"/>
       <c r="W237" s="63"/>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23">
       <c r="A238" s="63"/>
       <c r="I238" s="63"/>
       <c r="L238" s="63"/>
@@ -18437,7 +18449,7 @@
       <c r="U238" s="63"/>
       <c r="W238" s="63"/>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23">
       <c r="A239" s="63"/>
       <c r="I239" s="63"/>
       <c r="L239" s="63"/>
@@ -18446,7 +18458,7 @@
       <c r="U239" s="63"/>
       <c r="W239" s="63"/>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23">
       <c r="A240" s="63"/>
       <c r="G240" s="68" t="s">
         <v>152</v>
@@ -18470,7 +18482,7 @@
       <c r="U240" s="63"/>
       <c r="W240" s="63"/>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23">
       <c r="A241" s="63"/>
       <c r="I241" s="63"/>
       <c r="L241" s="63"/>
@@ -18479,7 +18491,7 @@
       <c r="U241" s="63"/>
       <c r="W241" s="63"/>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23">
       <c r="A242" s="63"/>
       <c r="G242" s="63" t="s">
         <v>153</v>
@@ -18497,7 +18509,7 @@
       <c r="U242" s="63"/>
       <c r="W242" s="63"/>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23">
       <c r="A243" s="63"/>
       <c r="G243" s="63" t="s">
         <v>156</v>
@@ -18509,21 +18521,21 @@
       <c r="U243" s="63"/>
       <c r="W243" s="63"/>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23">
       <c r="G244" s="63" t="s">
         <v>116</v>
       </c>
       <c r="W244" s="63"/>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23">
       <c r="A246" s="63"/>
       <c r="W246" s="63"/>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23">
       <c r="A247" s="63"/>
       <c r="W247" s="63"/>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23">
       <c r="A248" s="63"/>
       <c r="B248" s="101" t="s">
         <v>157</v>
@@ -18689,6 +18701,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18703,23 +18720,23 @@
       <selection pane="bottomRight" activeCell="G33" sqref="C27:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="39" customFormat="1" ht="15">
       <c r="A2" s="38"/>
       <c r="C2" s="35" t="s">
         <v>533</v>
@@ -18752,7 +18769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="42" customFormat="1" ht="15">
       <c r="A3" s="41"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -18765,7 +18782,7 @@
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="34" t="s">
         <v>91</v>
       </c>
@@ -18776,7 +18793,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="62" t="s">
         <v>458</v>
       </c>
@@ -18787,7 +18804,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="62" customFormat="1">
       <c r="A6" s="34"/>
       <c r="B6" s="62" t="s">
         <v>131</v>
@@ -18796,7 +18813,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>159</v>
       </c>
@@ -18804,7 +18821,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>545</v>
       </c>
@@ -18812,10 +18829,10 @@
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="40" customFormat="1">
       <c r="A12" s="37"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="34" t="s">
         <v>92</v>
       </c>
@@ -18826,7 +18843,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>542</v>
       </c>
@@ -18837,7 +18854,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" s="62" t="s">
         <v>640</v>
       </c>
@@ -18845,7 +18862,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="B16" s="62" t="s">
         <v>452</v>
       </c>
@@ -18856,7 +18873,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="B17" s="62" t="s">
         <v>460</v>
       </c>
@@ -18864,7 +18881,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="62" customFormat="1">
       <c r="A18" s="34"/>
       <c r="B18" s="62" t="s">
         <v>131</v>
@@ -18873,7 +18890,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="B19" s="62" t="s">
         <v>459</v>
       </c>
@@ -18881,7 +18898,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="B20" s="62" t="s">
         <v>540</v>
       </c>
@@ -18889,7 +18906,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="B21" t="s">
         <v>628</v>
       </c>
@@ -18900,7 +18917,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
         <v>635</v>
       </c>
@@ -18908,7 +18925,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
         <v>627</v>
       </c>
@@ -18916,7 +18933,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="62" customFormat="1">
       <c r="A24" s="34"/>
       <c r="B24" s="62" t="s">
         <v>751</v>
@@ -18925,10 +18942,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="40" customFormat="1">
       <c r="A26" s="37"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="34" t="s">
         <v>93</v>
       </c>
@@ -18940,7 +18957,7 @@
       </c>
       <c r="D27" s="54"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="B28" s="62" t="s">
         <v>459</v>
       </c>
@@ -18952,14 +18969,14 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="B29" s="62" t="s">
         <v>643</v>
       </c>
       <c r="D29" s="54"/>
       <c r="F29" s="54"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="B30" t="s">
         <v>633</v>
       </c>
@@ -18968,7 +18985,7 @@
       </c>
       <c r="F30" s="54"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="B31" t="s">
         <v>639</v>
       </c>
@@ -18977,7 +18994,7 @@
       </c>
       <c r="F31" s="54"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="B32" t="s">
         <v>634</v>
       </c>
@@ -18985,13 +19002,13 @@
         <v>629</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="4"/>
     </row>
-    <row r="35" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="40" customFormat="1">
       <c r="A35" s="37"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="34" t="s">
         <v>94</v>
       </c>
@@ -19004,7 +19021,7 @@
       <c r="D36" s="54"/>
       <c r="F36" s="54"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="62" t="s">
         <v>539</v>
       </c>
@@ -19012,7 +19029,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="62" t="s">
         <v>101</v>
       </c>
@@ -19023,7 +19040,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="62" t="s">
         <v>497</v>
       </c>
@@ -19034,7 +19051,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="62" t="s">
         <v>459</v>
       </c>
@@ -19042,7 +19059,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="62" t="s">
         <v>462</v>
       </c>
@@ -19053,16 +19070,16 @@
         <v>547</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="62" customFormat="1">
       <c r="A42" s="34"/>
     </row>
-    <row r="43" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="62" customFormat="1">
       <c r="A43" s="34"/>
     </row>
-    <row r="44" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="40" customFormat="1">
       <c r="A44" s="37"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="34" t="s">
         <v>95</v>
       </c>
@@ -19077,14 +19094,14 @@
         <v>552</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" t="s">
         <v>363</v>
       </c>
       <c r="F46" s="54"/>
       <c r="H46" s="54"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" t="s">
         <v>328</v>
       </c>
@@ -19092,12 +19109,12 @@
         <v>637</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="B49" t="s">
         <v>544</v>
       </c>
@@ -19105,7 +19122,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="B50" t="s">
         <v>632</v>
       </c>
@@ -19113,19 +19130,19 @@
         <v>632</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="62" customFormat="1">
       <c r="A51" s="34"/>
       <c r="B51" s="62" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="62" customFormat="1">
       <c r="A52" s="34"/>
     </row>
-    <row r="53" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="40" customFormat="1">
       <c r="A53" s="37"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="34" t="s">
         <v>96</v>
       </c>
@@ -19136,35 +19153,40 @@
         <v>555</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="B55" s="62" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="B56" s="62" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16" customHeight="1"/>
+    <row r="69" spans="2:2">
       <c r="B69" s="62"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="62"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="62"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="62"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19179,27 +19201,27 @@
       <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="33" customWidth="1"/>
-    <col min="2" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.83203125" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="33" customWidth="1"/>
+    <col min="2" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="39" customFormat="1" ht="15">
       <c r="A2" s="38"/>
       <c r="C2" s="35" t="s">
         <v>536</v>
@@ -19247,7 +19269,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="33" t="s">
         <v>122</v>
       </c>
@@ -19269,7 +19291,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="C4" s="62" t="s">
         <v>99</v>
       </c>
@@ -19285,7 +19307,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="C5" s="62" t="s">
         <v>457</v>
       </c>
@@ -19301,7 +19323,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="C6" s="62" t="s">
         <v>494</v>
       </c>
@@ -19314,7 +19336,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="C7" s="62" t="s">
         <v>514</v>
       </c>
@@ -19327,7 +19349,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="C8" s="62" t="s">
         <v>540</v>
       </c>
@@ -19340,7 +19362,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="C9" t="s">
         <v>665</v>
       </c>
@@ -19354,7 +19376,7 @@
       </c>
       <c r="O9" s="62"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="C10" s="116" t="s">
         <v>658</v>
       </c>
@@ -19367,7 +19389,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="C11" s="62"/>
       <c r="E11" s="62"/>
       <c r="F11" s="114" t="s">
@@ -19376,24 +19398,24 @@
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="F12" s="116" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="62" customFormat="1">
       <c r="A13" s="68"/>
       <c r="F13" s="115" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="62" customFormat="1">
       <c r="A14" s="68"/>
     </row>
-    <row r="15" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="40" customFormat="1">
       <c r="A15" s="46"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="33" t="s">
         <v>123</v>
       </c>
@@ -19414,7 +19436,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="32" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="30">
       <c r="C17" s="62" t="s">
         <v>456</v>
       </c>
@@ -19429,7 +19451,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="32" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="30">
       <c r="C18" s="62" t="s">
         <v>559</v>
       </c>
@@ -19444,7 +19466,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="C19" s="62" t="s">
         <v>664</v>
       </c>
@@ -19456,7 +19478,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="32" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="C20" s="62" t="s">
         <v>450</v>
       </c>
@@ -19465,7 +19487,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="C21" s="62" t="s">
         <v>454</v>
       </c>
@@ -19474,7 +19496,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" s="62" t="s">
         <v>452</v>
       </c>
@@ -19482,7 +19504,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" s="116" t="s">
         <v>513</v>
       </c>
@@ -19490,7 +19512,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" s="51" t="s">
         <v>663</v>
       </c>
@@ -19501,7 +19523,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="C25" s="117" t="s">
         <v>508</v>
       </c>
@@ -19511,63 +19533,63 @@
       <c r="G25" s="115"/>
       <c r="H25" s="115"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="F26" s="117" t="s">
         <v>512</v>
       </c>
       <c r="G26" s="115"/>
       <c r="H26" s="115"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="115"/>
       <c r="H27" s="115"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="115"/>
       <c r="H28" s="115"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="115"/>
       <c r="H29" s="115"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="115"/>
       <c r="H30" s="115"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="115"/>
       <c r="H31" s="115"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8">
       <c r="F33" s="115"/>
       <c r="G33" s="115"/>
       <c r="H33" s="115"/>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:8">
       <c r="F34" s="115"/>
       <c r="G34" s="115"/>
       <c r="H34" s="115"/>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:8">
       <c r="F35" s="115"/>
       <c r="G35" s="115"/>
       <c r="H35" s="115"/>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:8">
       <c r="F36" s="115"/>
       <c r="G36" s="115"/>
       <c r="H36" s="115"/>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:8">
       <c r="F37" s="115"/>
       <c r="G37" s="115"/>
       <c r="H37" s="115"/>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:8">
       <c r="F38" s="115"/>
       <c r="G38" s="115"/>
       <c r="H38" s="115"/>
@@ -19591,6 +19613,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19605,26 +19632,26 @@
       <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="68" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" style="62" customWidth="1"/>
-    <col min="4" max="5" width="4.83203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="62" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="62" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="62" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" style="62" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" style="62" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" style="62" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="62" customWidth="1"/>
-    <col min="16" max="16384" width="11.5" style="62"/>
+    <col min="1" max="1" width="5.28515625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="62" customWidth="1"/>
+    <col min="4" max="5" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="62" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="62" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="62" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" style="62" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="62" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="62" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="62" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="39" customFormat="1" ht="15">
       <c r="A2" s="38"/>
       <c r="C2" s="35" t="s">
         <v>729</v>
@@ -19666,7 +19693,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="42" customFormat="1" ht="15">
       <c r="A3" s="41"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -19682,7 +19709,7 @@
       <c r="N3" s="43"/>
       <c r="O3" s="43"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="68" t="s">
         <v>697</v>
       </c>
@@ -19709,7 +19736,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="51" t="s">
         <v>620</v>
       </c>
@@ -19727,7 +19754,7 @@
       </c>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="C6" s="62" t="s">
         <v>755</v>
       </c>
@@ -19740,23 +19767,23 @@
       <c r="H6" s="48"/>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="C7" s="47"/>
       <c r="H7" s="48"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="H8" s="48"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="H9" s="48"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="68" customFormat="1">
       <c r="D11" s="68">
         <f>SUM(D4:D10)</f>
         <v>6</v>
@@ -19778,10 +19805,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="40" customFormat="1">
       <c r="A12" s="46"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="68" t="s">
         <v>128</v>
       </c>
@@ -19792,16 +19819,16 @@
         <v>693</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="I14" s="62" t="s">
         <v>692</v>
       </c>
       <c r="L14" s="53"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="L15" s="52"/>
     </row>
-    <row r="18" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="68" customFormat="1">
       <c r="D18" s="68">
         <f>SUM(D13:D17)</f>
         <v>0</v>
@@ -19815,10 +19842,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="40" customFormat="1">
       <c r="A19" s="46"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="68" t="s">
         <v>125</v>
       </c>
@@ -19835,7 +19862,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="C21" s="47" t="s">
         <v>691</v>
       </c>
@@ -19850,7 +19877,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="C22" s="62" t="s">
         <v>400</v>
       </c>
@@ -19861,7 +19888,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="C23" s="62" t="s">
         <v>530</v>
       </c>
@@ -19869,7 +19896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="C24" s="63" t="s">
         <v>641</v>
       </c>
@@ -19877,7 +19904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="68" customFormat="1">
       <c r="D26" s="68">
         <f>SUM(D20:D24)</f>
         <v>6</v>
@@ -19899,10 +19926,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="40" customFormat="1">
       <c r="A27" s="46"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="68" t="s">
         <v>124</v>
       </c>
@@ -19920,7 +19947,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="C29" s="62" t="s">
         <v>570</v>
       </c>
@@ -19929,7 +19956,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="C30" s="62" t="s">
         <v>690</v>
       </c>
@@ -19938,7 +19965,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="C31" s="63" t="s">
         <v>688</v>
       </c>
@@ -19947,7 +19974,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="C32" s="62" t="s">
         <v>686</v>
       </c>
@@ -19956,31 +19983,31 @@
         <v>683</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="C33" s="63" t="s">
         <v>684</v>
       </c>
       <c r="D33" s="48"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="C34" s="62" t="s">
         <v>682</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="48"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="C35" s="62" t="s">
         <v>681</v>
       </c>
       <c r="D35" s="48"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="C36" s="62" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="68" customFormat="1">
       <c r="D38" s="68">
         <f>SUM(D28:D37)</f>
         <v>0</v>
@@ -20002,10 +20029,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="40" customFormat="1">
       <c r="A39" s="46"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="68" t="s">
         <v>126</v>
       </c>
@@ -20022,7 +20049,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="C41" s="63" t="s">
         <v>564</v>
       </c>
@@ -20030,7 +20057,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="C42" s="63" t="s">
         <v>563</v>
       </c>
@@ -20038,7 +20065,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="C43" s="63" t="s">
         <v>562</v>
       </c>
@@ -20046,7 +20073,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="C44" s="63" t="s">
         <v>561</v>
       </c>
@@ -20054,47 +20081,47 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="C45" s="63" t="s">
         <v>567</v>
       </c>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="C46" s="62" t="s">
         <v>570</v>
       </c>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="C47" s="48"/>
       <c r="D47" s="63"/>
       <c r="F47" s="62" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="C48" s="62" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="C49" s="62" t="s">
         <v>677</v>
       </c>
       <c r="D49" s="48"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="C50" s="62" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="C52" s="62" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="68" customFormat="1">
       <c r="D55" s="68">
         <f>SUM(D40:D52)</f>
         <v>0</v>
@@ -20108,10 +20135,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="40" customFormat="1">
       <c r="A56" s="46"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="68" t="s">
         <v>127</v>
       </c>
@@ -20137,7 +20164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="68" customFormat="1">
       <c r="D63" s="68">
         <f>SUM(D57:D62)</f>
         <v>1</v>
@@ -20151,10 +20178,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="40" customFormat="1">
       <c r="A64" s="46"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14">
       <c r="B65" s="47" t="s">
         <v>535</v>
       </c>
@@ -20173,7 +20200,7 @@
       <c r="M65" s="49"/>
       <c r="N65" s="49"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14">
       <c r="B66" s="47" t="s">
         <v>724</v>
       </c>
@@ -20192,7 +20219,7 @@
       <c r="M66" s="49"/>
       <c r="N66" s="49"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14">
       <c r="B67" s="47" t="s">
         <v>721</v>
       </c>
@@ -20211,7 +20238,7 @@
       <c r="M67" s="49"/>
       <c r="N67" s="49"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14">
       <c r="B68" s="62" t="s">
         <v>715</v>
       </c>
@@ -20227,7 +20254,7 @@
       <c r="M68" s="49"/>
       <c r="N68" s="49"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14">
       <c r="B69" s="47" t="s">
         <v>107</v>
       </c>
@@ -20244,7 +20271,7 @@
       <c r="M69" s="49"/>
       <c r="N69" s="49"/>
     </row>
-    <row r="70" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" ht="15" customHeight="1">
       <c r="F70" s="49"/>
       <c r="G70" s="49"/>
       <c r="H70" s="49"/>
@@ -20255,7 +20282,7 @@
       <c r="M70" s="49"/>
       <c r="N70" s="49"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14">
       <c r="B71" s="47" t="s">
         <v>716</v>
       </c>
@@ -20274,7 +20301,7 @@
       <c r="M71" s="49"/>
       <c r="N71" s="49"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14">
       <c r="B72" s="47" t="s">
         <v>718</v>
       </c>
@@ -20293,7 +20320,7 @@
       <c r="M72" s="49"/>
       <c r="N72" s="49"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14">
       <c r="B73" s="47" t="s">
         <v>717</v>
       </c>
@@ -20312,7 +20339,7 @@
       <c r="M73" s="49"/>
       <c r="N73" s="49"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14">
       <c r="B74" s="47" t="s">
         <v>742</v>
       </c>
@@ -20331,7 +20358,7 @@
       <c r="M74" s="49"/>
       <c r="N74" s="49"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14">
       <c r="B75" s="47" t="s">
         <v>719</v>
       </c>
@@ -20350,7 +20377,7 @@
       <c r="M75" s="49"/>
       <c r="N75" s="49"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14">
       <c r="B76" s="47" t="s">
         <v>722</v>
       </c>
@@ -20369,7 +20396,7 @@
       <c r="M76" s="49"/>
       <c r="N76" s="49"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14">
       <c r="B77" s="47" t="s">
         <v>720</v>
       </c>
@@ -20388,17 +20415,17 @@
       <c r="M77" s="49"/>
       <c r="N77" s="49"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14">
       <c r="B78" s="50" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14">
       <c r="B79" s="50" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14">
       <c r="B80" s="51" t="s">
         <v>534</v>
       </c>
@@ -20415,7 +20442,7 @@
       <c r="M80" s="49"/>
       <c r="N80" s="49"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14">
       <c r="B81" s="50" t="s">
         <v>747</v>
       </c>
@@ -20438,6 +20465,11 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20449,20 +20481,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="25.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="62" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="62" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="62"/>
+    <col min="1" max="2" width="25.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="62" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="62" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="62" t="s">
         <v>385</v>
       </c>
@@ -20473,7 +20505,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="62" t="s">
         <v>702</v>
       </c>
@@ -20490,7 +20522,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="62" t="s">
         <v>390</v>
       </c>
@@ -20498,7 +20530,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="62" t="s">
         <v>391</v>
       </c>
@@ -20515,7 +20547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="62" t="s">
         <v>394</v>
       </c>
@@ -20532,7 +20564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11" s="62" t="s">
         <v>408</v>
       </c>
@@ -20540,7 +20572,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="62" t="s">
         <v>396</v>
       </c>
@@ -20557,7 +20589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15" s="62" t="s">
         <v>398</v>
       </c>
@@ -20571,7 +20603,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="62" t="s">
         <v>399</v>
       </c>
@@ -20585,7 +20617,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="62" t="s">
         <v>699</v>
       </c>
@@ -20599,7 +20631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" s="62" t="s">
         <v>423</v>
       </c>
@@ -20613,7 +20645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="62" t="s">
         <v>403</v>
       </c>
@@ -20630,7 +20662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="62" t="s">
         <v>404</v>
       </c>
@@ -20647,7 +20679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="62" t="s">
         <v>409</v>
       </c>
@@ -20661,12 +20693,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="E25" s="62">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="62" t="s">
         <v>411</v>
       </c>
@@ -20674,7 +20706,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="62" t="s">
         <v>412</v>
       </c>
@@ -20688,7 +20720,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="62" t="s">
         <v>414</v>
       </c>
@@ -20702,7 +20734,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="62" t="s">
         <v>417</v>
       </c>
@@ -20716,7 +20748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="62" t="s">
         <v>418</v>
       </c>
@@ -20730,7 +20762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="62" t="s">
         <v>420</v>
       </c>
@@ -20744,7 +20776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="62" t="s">
         <v>525</v>
       </c>
@@ -20758,7 +20790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="62" t="s">
         <v>422</v>
       </c>
@@ -20772,7 +20804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="62" t="s">
         <v>527</v>
       </c>
@@ -20786,7 +20818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="62" t="s">
         <v>424</v>
       </c>
@@ -20800,7 +20832,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="62" t="s">
         <v>425</v>
       </c>
@@ -20814,7 +20846,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="62" t="s">
         <v>426</v>
       </c>
@@ -20831,7 +20863,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="62" t="s">
         <v>428</v>
       </c>
@@ -20845,7 +20877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="62" t="s">
         <v>528</v>
       </c>
@@ -20859,7 +20891,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="62" t="s">
         <v>530</v>
       </c>
@@ -20876,20 +20908,25 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="54"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -20900,7 +20937,7 @@
       <c r="H1" s="54"/>
       <c r="I1" s="54"/>
     </row>
-    <row r="2" spans="1:9" s="62" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="62" customFormat="1" ht="20">
       <c r="A2" s="54"/>
       <c r="B2" s="55" t="s">
         <v>758</v>
@@ -20913,7 +20950,7 @@
       <c r="H2" s="54"/>
       <c r="I2" s="54"/>
     </row>
-    <row r="3" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="62" customFormat="1">
       <c r="A3" s="54"/>
       <c r="B3" s="54" t="s">
         <v>759</v>
@@ -20926,11 +20963,11 @@
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
     </row>
-    <row r="4" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="62" customFormat="1">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
       <c r="C4" s="54" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
@@ -20939,11 +20976,11 @@
       <c r="H4" s="54"/>
       <c r="I4" s="54"/>
     </row>
-    <row r="5" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="62" customFormat="1">
       <c r="A5" s="54"/>
       <c r="B5" s="54"/>
       <c r="C5" s="54" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
@@ -20952,11 +20989,11 @@
       <c r="H5" s="54"/>
       <c r="I5" s="54"/>
     </row>
-    <row r="6" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="62" customFormat="1">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="54" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -20965,11 +21002,11 @@
       <c r="H6" s="54"/>
       <c r="I6" s="54"/>
     </row>
-    <row r="7" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="62" customFormat="1">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="54" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -20978,11 +21015,11 @@
       <c r="H7" s="54"/>
       <c r="I7" s="54"/>
     </row>
-    <row r="8" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="62" customFormat="1">
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
@@ -20991,11 +21028,11 @@
       <c r="H8" s="54"/>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="62" customFormat="1">
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
@@ -21004,7 +21041,7 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="62" customFormat="1">
       <c r="A10" s="54"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54" t="s">
@@ -21017,7 +21054,7 @@
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="62" customFormat="1">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54" t="s">
@@ -21030,11 +21067,11 @@
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
     </row>
-    <row r="12" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="62" customFormat="1">
       <c r="A12" s="54"/>
       <c r="B12" s="54"/>
-      <c r="C12" s="51" t="s">
-        <v>764</v>
+      <c r="C12" s="63" t="s">
+        <v>771</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
@@ -21043,7 +21080,7 @@
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
     </row>
-    <row r="13" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="62" customFormat="1">
       <c r="A13" s="54"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
@@ -21054,7 +21091,7 @@
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="62" customFormat="1">
       <c r="A14" s="54"/>
       <c r="B14" s="54" t="s">
         <v>169</v>
@@ -21067,11 +21104,13 @@
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
     </row>
-    <row r="15" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="62" customFormat="1">
       <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
+      <c r="B15" s="54">
+        <v>1</v>
+      </c>
       <c r="C15" s="54" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
@@ -21080,13 +21119,13 @@
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
     </row>
-    <row r="16" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="62" customFormat="1">
       <c r="A16" s="54"/>
       <c r="B16" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
@@ -21095,14 +21134,8 @@
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
     </row>
-    <row r="17" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="62" customFormat="1">
       <c r="A17" s="54"/>
-      <c r="B17" s="54">
-        <v>2</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>773</v>
-      </c>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
@@ -21110,10 +21143,14 @@
       <c r="H17" s="54"/>
       <c r="I17" s="54"/>
     </row>
-    <row r="18" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="62" customFormat="1">
       <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="62">
+        <v>3</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>775</v>
+      </c>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
@@ -21121,196 +21158,187 @@
       <c r="H18" s="54"/>
       <c r="I18" s="54"/>
     </row>
-    <row r="19" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="62" customFormat="1">
       <c r="A19" s="54"/>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
+      <c r="D19" s="54" t="s">
+        <v>773</v>
+      </c>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="62" customFormat="1">
       <c r="A20" s="54"/>
-      <c r="B20" s="54" t="s">
-        <v>339</v>
-      </c>
+      <c r="B20" s="54"/>
       <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="D20" s="54" t="s">
+        <v>774</v>
+      </c>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="62" customFormat="1">
       <c r="A21" s="54"/>
-      <c r="B21" s="54">
-        <v>1</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>760</v>
-      </c>
-      <c r="D21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
+        <v>776</v>
+      </c>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="62" customFormat="1">
       <c r="A22" s="54"/>
       <c r="B22" s="54"/>
-      <c r="C22" s="54" t="s">
-        <v>761</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54" t="s">
+        <v>777</v>
+      </c>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
     </row>
-    <row r="23" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="62" customFormat="1">
       <c r="A23" s="54"/>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="D23" s="54" t="s">
+        <v>778</v>
+      </c>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
     </row>
-    <row r="24" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="62" customFormat="1">
       <c r="A24" s="54"/>
-      <c r="B24" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54" t="s">
+        <v>779</v>
+      </c>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
       <c r="H24" s="54"/>
       <c r="I24" s="54"/>
     </row>
-    <row r="25" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="62" customFormat="1">
       <c r="A25" s="54"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="D25" s="54" t="s">
+        <v>780</v>
+      </c>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
     </row>
-    <row r="26" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="62" customFormat="1">
       <c r="A26" s="54"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="D26" s="54" t="s">
+        <v>781</v>
+      </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="H26" s="54"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="62" customFormat="1">
       <c r="A27" s="54"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="D27" s="54" t="s">
+        <v>782</v>
+      </c>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="H27" s="54"/>
       <c r="I27" s="54"/>
     </row>
-    <row r="28" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="62" customFormat="1">
       <c r="A28" s="54"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="D28" s="54" t="s">
+        <v>783</v>
+      </c>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="54"/>
     </row>
-    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="62" customFormat="1">
       <c r="A29" s="54"/>
-      <c r="B29" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54" t="s">
+        <v>784</v>
+      </c>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="H29" s="54"/>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="62" customFormat="1">
       <c r="A30" s="54"/>
-      <c r="B30" s="54" t="s">
-        <v>161</v>
-      </c>
+      <c r="B30" s="54"/>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
       <c r="H30" s="54"/>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="62" customFormat="1">
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
-      <c r="C31" s="54" t="s">
-        <v>162</v>
-      </c>
+      <c r="C31" s="54"/>
       <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
       <c r="F31" s="54"/>
       <c r="G31" s="54"/>
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="62" customFormat="1">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
-      <c r="C32" s="54" t="s">
-        <v>163</v>
-      </c>
+      <c r="C32" s="54"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
       <c r="H32" s="54"/>
       <c r="I32" s="54"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="62" customFormat="1">
       <c r="A33" s="54"/>
       <c r="B33" s="54"/>
-      <c r="C33" s="54" t="s">
-        <v>164</v>
-      </c>
+      <c r="C33" s="54"/>
       <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
       <c r="H33" s="54"/>
       <c r="I33" s="54"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="62" customFormat="1">
       <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54" t="s">
-        <v>165</v>
-      </c>
+      <c r="B34" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="54"/>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
       <c r="F34" s="54"/>
@@ -21318,11 +21346,13 @@
       <c r="H34" s="54"/>
       <c r="I34" s="54"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="62" customFormat="1">
       <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
+      <c r="B35" s="54">
+        <v>1</v>
+      </c>
       <c r="C35" s="54" t="s">
-        <v>330</v>
+        <v>760</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
@@ -21331,11 +21361,11 @@
       <c r="H35" s="54"/>
       <c r="I35" s="54"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="62" customFormat="1">
       <c r="A36" s="54"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54" t="s">
-        <v>331</v>
+        <v>761</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
@@ -21344,12 +21374,10 @@
       <c r="H36" s="54"/>
       <c r="I36" s="54"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="62" customFormat="1">
       <c r="A37" s="54"/>
       <c r="B37" s="54"/>
-      <c r="C37" s="54" t="s">
-        <v>332</v>
-      </c>
+      <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
@@ -21357,11 +21385,10 @@
       <c r="H37" s="54"/>
       <c r="I37" s="54"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="62" customFormat="1">
       <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54" t="s">
-        <v>333</v>
+      <c r="B38" s="54" t="s">
+        <v>351</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
@@ -21370,12 +21397,10 @@
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="62" customFormat="1">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
-      <c r="C39" s="54" t="s">
-        <v>334</v>
-      </c>
+      <c r="C39" s="54"/>
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
       <c r="F39" s="54"/>
@@ -21383,7 +21408,7 @@
       <c r="H39" s="54"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="62" customFormat="1">
       <c r="A40" s="54"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -21394,11 +21419,9 @@
       <c r="H40" s="54"/>
       <c r="I40" s="54"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="62" customFormat="1">
       <c r="A41" s="54"/>
-      <c r="B41" s="54" t="s">
-        <v>169</v>
-      </c>
+      <c r="B41" s="54"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
@@ -21407,12 +21430,10 @@
       <c r="H41" s="54"/>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="62" customFormat="1">
       <c r="A42" s="54"/>
       <c r="B42" s="54"/>
-      <c r="C42" s="54" t="s">
-        <v>335</v>
-      </c>
+      <c r="C42" s="54"/>
       <c r="D42" s="54"/>
       <c r="E42" s="54"/>
       <c r="F42" s="54"/>
@@ -21420,29 +21441,25 @@
       <c r="H42" s="54"/>
       <c r="I42" s="54"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="20">
       <c r="A43" s="54"/>
-      <c r="B43" s="54">
-        <v>1</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="D43" s="54"/>
+      <c r="B43" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
       <c r="H43" s="54"/>
       <c r="I43" s="54"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="54"/>
-      <c r="B44" s="54">
-        <v>2</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>337</v>
-      </c>
+      <c r="B44" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="54"/>
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
       <c r="F44" s="54"/>
@@ -21450,40 +21467,37 @@
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="54"/>
-      <c r="B45" s="54">
-        <v>3</v>
-      </c>
+      <c r="B45" s="54"/>
       <c r="C45" s="54" t="s">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
       <c r="H45" s="54"/>
       <c r="I45" s="54"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="54"/>
       <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54" t="s">
-        <v>354</v>
-      </c>
+      <c r="C46" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="54"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
       <c r="H46" s="54"/>
       <c r="I46" s="54"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="54"/>
-      <c r="B47" s="54">
-        <v>4</v>
-      </c>
+      <c r="B47" s="54"/>
       <c r="C47" s="54" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="D47" s="54"/>
       <c r="E47" s="54"/>
@@ -21492,10 +21506,12 @@
       <c r="H47" s="54"/>
       <c r="I47" s="54"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="54"/>
       <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
+      <c r="C48" s="54" t="s">
+        <v>165</v>
+      </c>
       <c r="D48" s="54"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
@@ -21503,12 +21519,12 @@
       <c r="H48" s="54"/>
       <c r="I48" s="54"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="54"/>
-      <c r="B49" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="C49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54" t="s">
+        <v>330</v>
+      </c>
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
@@ -21516,13 +21532,11 @@
       <c r="H49" s="54"/>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="54"/>
-      <c r="B50" s="54">
-        <v>1</v>
-      </c>
+      <c r="B50" s="54"/>
       <c r="C50" s="54" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
@@ -21531,11 +21545,11 @@
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
@@ -21544,11 +21558,11 @@
       <c r="H51" s="54"/>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
@@ -21557,10 +21571,12 @@
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="54"/>
       <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
+      <c r="C53" s="54" t="s">
+        <v>334</v>
+      </c>
       <c r="D53" s="54"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
@@ -21568,14 +21584,10 @@
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="54"/>
-      <c r="B54" s="54">
-        <v>2</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>343</v>
-      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="54"/>
       <c r="E54" s="54"/>
       <c r="F54" s="54"/>
@@ -21583,78 +21595,97 @@
       <c r="H54" s="54"/>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
+      <c r="B55" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
       <c r="H55" s="54"/>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="54"/>
-      <c r="B56" s="54">
-        <v>3</v>
-      </c>
+      <c r="B56" s="54"/>
       <c r="C56" s="54" t="s">
-        <v>344</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D56" s="54"/>
       <c r="E56" s="54"/>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
       <c r="H56" s="54"/>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
+      <c r="B57" s="54">
+        <v>1</v>
+      </c>
       <c r="C57" s="54" t="s">
-        <v>345</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="D57" s="54"/>
       <c r="E57" s="54"/>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
       <c r="H57" s="54"/>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="54"/>
+      <c r="B58" s="54">
+        <v>2</v>
+      </c>
       <c r="C58" s="54" t="s">
-        <v>346</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="D58" s="54"/>
       <c r="E58" s="54"/>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
       <c r="H58" s="54"/>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="54"/>
+      <c r="B59" s="54">
+        <v>3</v>
+      </c>
       <c r="C59" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="E59" s="54"/>
+        <v>353</v>
+      </c>
+      <c r="D59" s="54"/>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="54"/>
-      <c r="C60" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="D60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54" t="s">
+        <v>354</v>
+      </c>
       <c r="E60" s="54"/>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
       <c r="H60" s="54"/>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="54"/>
-      <c r="C61" s="54"/>
+      <c r="B61" s="54">
+        <v>4</v>
+      </c>
+      <c r="C61" s="54" t="s">
+        <v>338</v>
+      </c>
       <c r="D61" s="54"/>
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
@@ -21662,34 +21693,38 @@
       <c r="H61" s="54"/>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="54"/>
-      <c r="D62" s="54" t="s">
-        <v>355</v>
-      </c>
+      <c r="D62" s="54"/>
       <c r="E62" s="54"/>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
       <c r="H62" s="54"/>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="54"/>
+      <c r="B63" s="54" t="s">
+        <v>339</v>
+      </c>
       <c r="C63" s="54"/>
-      <c r="D63" s="54" t="s">
-        <v>356</v>
-      </c>
+      <c r="D63" s="54"/>
       <c r="E63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
+      <c r="B64" s="54">
+        <v>1</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>340</v>
+      </c>
       <c r="D64" s="54"/>
       <c r="E64" s="54"/>
       <c r="F64" s="54"/>
@@ -21697,13 +21732,11 @@
       <c r="H64" s="54"/>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="54"/>
-      <c r="B65" s="54">
-        <v>4</v>
-      </c>
+      <c r="B65" s="54"/>
       <c r="C65" s="54" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D65" s="54"/>
       <c r="E65" s="54"/>
@@ -21712,11 +21745,11 @@
       <c r="H65" s="54"/>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="54"/>
       <c r="B66" s="54"/>
-      <c r="C66" t="s">
-        <v>350</v>
+      <c r="C66" s="54" t="s">
+        <v>342</v>
       </c>
       <c r="D66" s="54"/>
       <c r="E66" s="54"/>
@@ -21725,106 +21758,103 @@
       <c r="H66" s="54"/>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="54"/>
       <c r="B67" s="54"/>
-      <c r="D67" s="54" t="s">
-        <v>357</v>
-      </c>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
       <c r="E67" s="54"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="D68" s="54" t="s">
-        <v>358</v>
-      </c>
+      <c r="B68" s="54">
+        <v>2</v>
+      </c>
+      <c r="C68" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="D68" s="54"/>
       <c r="E68" s="54"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="54"/>
       <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
       <c r="E69" s="54"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="54"/>
-      <c r="B70" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="D70" s="54"/>
+      <c r="B70" s="54">
+        <v>3</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>344</v>
+      </c>
       <c r="E70" s="54"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="54"/>
       <c r="B71" s="54"/>
       <c r="C71" s="54" t="s">
-        <v>352</v>
-      </c>
-      <c r="D71" s="54"/>
+        <v>345</v>
+      </c>
       <c r="E71" s="54"/>
       <c r="F71" s="54"/>
       <c r="G71" s="54"/>
       <c r="H71" s="54"/>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
+      <c r="C72" s="54" t="s">
+        <v>346</v>
+      </c>
       <c r="E72" s="54"/>
       <c r="F72" s="54"/>
       <c r="G72" s="54"/>
       <c r="H72" s="54"/>
       <c r="I72" s="54"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
+      <c r="C73" s="54" t="s">
+        <v>347</v>
+      </c>
       <c r="E73" s="54"/>
       <c r="F73" s="54"/>
       <c r="G73" s="54"/>
       <c r="H73" s="54"/>
       <c r="I73" s="54"/>
     </row>
-    <row r="74" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="54"/>
-      <c r="B74" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
+      <c r="C74" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="D74" s="54"/>
       <c r="E74" s="54"/>
       <c r="F74" s="54"/>
       <c r="G74" s="54"/>
       <c r="H74" s="54"/>
       <c r="I74" s="54"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="54"/>
-      <c r="B75" s="54" t="s">
-        <v>189</v>
-      </c>
       <c r="C75" s="54"/>
       <c r="D75" s="54"/>
       <c r="E75" s="54"/>
@@ -21833,38 +21863,34 @@
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54" t="s">
+        <v>355</v>
+      </c>
       <c r="E76" s="54"/>
       <c r="F76" s="54"/>
       <c r="G76" s="54"/>
       <c r="H76" s="54"/>
       <c r="I76" s="54"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="D77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54" t="s">
+        <v>356</v>
+      </c>
       <c r="E77" s="54"/>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
       <c r="H77" s="54"/>
       <c r="I77" s="54"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="54"/>
       <c r="B78" s="54"/>
-      <c r="C78" s="54" t="s">
-        <v>191</v>
-      </c>
+      <c r="C78" s="54"/>
       <c r="D78" s="54"/>
       <c r="E78" s="54"/>
       <c r="F78" s="54"/>
@@ -21872,11 +21898,13 @@
       <c r="H78" s="54"/>
       <c r="I78" s="54"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
+      <c r="B79" s="54">
+        <v>4</v>
+      </c>
       <c r="C79" s="54" t="s">
-        <v>192</v>
+        <v>349</v>
       </c>
       <c r="D79" s="54"/>
       <c r="E79" s="54"/>
@@ -21885,11 +21913,11 @@
       <c r="H79" s="54"/>
       <c r="I79" s="54"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="54"/>
       <c r="B80" s="54"/>
-      <c r="C80" s="54" t="s">
-        <v>193</v>
+      <c r="C80" t="s">
+        <v>350</v>
       </c>
       <c r="D80" s="54"/>
       <c r="E80" s="54"/>
@@ -21898,38 +21926,34 @@
       <c r="H80" s="54"/>
       <c r="I80" s="54"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="54"/>
       <c r="B81" s="54"/>
-      <c r="C81" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="D81" s="54"/>
+      <c r="D81" s="54" t="s">
+        <v>357</v>
+      </c>
       <c r="E81" s="54"/>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
       <c r="H81" s="54"/>
       <c r="I81" s="54"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="54"/>
       <c r="B82" s="54"/>
-      <c r="C82" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" s="54"/>
+      <c r="D82" s="54" t="s">
+        <v>358</v>
+      </c>
       <c r="E82" s="54"/>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
       <c r="H82" s="54"/>
       <c r="I82" s="54"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="54"/>
       <c r="B83" s="54"/>
-      <c r="C83" s="54" t="s">
-        <v>167</v>
-      </c>
+      <c r="C83" s="54"/>
       <c r="D83" s="54"/>
       <c r="E83" s="54"/>
       <c r="F83" s="54"/>
@@ -21937,11 +21961,10 @@
       <c r="H83" s="54"/>
       <c r="I83" s="54"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54" t="s">
-        <v>168</v>
+      <c r="B84" s="54" t="s">
+        <v>351</v>
       </c>
       <c r="D84" s="54"/>
       <c r="E84" s="54"/>
@@ -21950,10 +21973,12 @@
       <c r="H84" s="54"/>
       <c r="I84" s="54"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="54"/>
       <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
+      <c r="C85" s="54" t="s">
+        <v>352</v>
+      </c>
       <c r="D85" s="54"/>
       <c r="E85" s="54"/>
       <c r="F85" s="54"/>
@@ -21961,11 +21986,9 @@
       <c r="H85" s="54"/>
       <c r="I85" s="54"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="54"/>
-      <c r="B86" s="54" t="s">
-        <v>169</v>
-      </c>
+      <c r="B86" s="54"/>
       <c r="C86" s="54"/>
       <c r="D86" s="54"/>
       <c r="E86" s="54"/>
@@ -21974,12 +21997,10 @@
       <c r="H86" s="54"/>
       <c r="I86" s="54"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="54"/>
       <c r="B87" s="54"/>
-      <c r="C87" s="54" t="s">
-        <v>170</v>
-      </c>
+      <c r="C87" s="54"/>
       <c r="D87" s="54"/>
       <c r="E87" s="54"/>
       <c r="F87" s="54"/>
@@ -21987,25 +22008,25 @@
       <c r="H87" s="54"/>
       <c r="I87" s="54"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="20">
       <c r="A88" s="54"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="D88" s="54"/>
+      <c r="B88" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="54"/>
       <c r="F88" s="54"/>
       <c r="G88" s="54"/>
       <c r="H88" s="54"/>
       <c r="I88" s="54"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="54"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="54" t="s">
-        <v>172</v>
-      </c>
+      <c r="B89" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="54"/>
       <c r="D89" s="54"/>
       <c r="E89" s="54"/>
       <c r="F89" s="54"/>
@@ -22013,10 +22034,12 @@
       <c r="H89" s="54"/>
       <c r="I89" s="54"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="54"/>
       <c r="B90" s="54"/>
-      <c r="C90" s="54"/>
+      <c r="C90" s="54" t="s">
+        <v>162</v>
+      </c>
       <c r="D90" s="54"/>
       <c r="E90" s="54"/>
       <c r="F90" s="54"/>
@@ -22024,11 +22047,11 @@
       <c r="H90" s="54"/>
       <c r="I90" s="54"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="54"/>
       <c r="B91" s="54"/>
       <c r="C91" s="54" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D91" s="54"/>
       <c r="E91" s="54"/>
@@ -22037,104 +22060,98 @@
       <c r="H91" s="54"/>
       <c r="I91" s="54"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="54"/>
       <c r="B92" s="54"/>
-      <c r="C92" s="54">
-        <v>1</v>
-      </c>
-      <c r="D92" s="54" t="s">
-        <v>174</v>
-      </c>
+      <c r="C92" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="54"/>
       <c r="E92" s="54"/>
       <c r="F92" s="54"/>
       <c r="G92" s="54"/>
       <c r="H92" s="54"/>
       <c r="I92" s="54"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="54"/>
       <c r="B93" s="54"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="54" t="s">
-        <v>175</v>
-      </c>
+      <c r="C93" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="54"/>
       <c r="E93" s="54"/>
       <c r="F93" s="54"/>
       <c r="G93" s="54"/>
       <c r="H93" s="54"/>
       <c r="I93" s="54"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="54"/>
       <c r="B94" s="54"/>
-      <c r="C94" s="54">
-        <v>2</v>
-      </c>
-      <c r="D94" s="54" t="s">
-        <v>176</v>
-      </c>
+      <c r="C94" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="54"/>
       <c r="E94" s="54"/>
       <c r="F94" s="54"/>
       <c r="G94" s="54"/>
       <c r="H94" s="54"/>
       <c r="I94" s="54"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="54"/>
       <c r="B95" s="54"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54" t="s">
-        <v>177</v>
-      </c>
+      <c r="C95" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="54"/>
       <c r="E95" s="54"/>
       <c r="F95" s="54"/>
       <c r="G95" s="54"/>
       <c r="H95" s="54"/>
       <c r="I95" s="54"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="54"/>
       <c r="B96" s="54"/>
-      <c r="C96" s="54">
-        <v>3</v>
-      </c>
-      <c r="D96" s="54" t="s">
-        <v>178</v>
-      </c>
+      <c r="C96" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="54"/>
       <c r="E96" s="54"/>
       <c r="F96" s="54"/>
       <c r="G96" s="54"/>
       <c r="H96" s="54"/>
       <c r="I96" s="54"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="54"/>
       <c r="B97" s="54"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54" t="s">
-        <v>179</v>
-      </c>
+      <c r="C97" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="54"/>
       <c r="E97" s="54"/>
       <c r="F97" s="54"/>
       <c r="G97" s="54"/>
       <c r="H97" s="54"/>
       <c r="I97" s="54"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="54"/>
       <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54" t="s">
-        <v>180</v>
-      </c>
+      <c r="C98" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" s="54"/>
       <c r="E98" s="54"/>
       <c r="F98" s="54"/>
       <c r="G98" s="54"/>
       <c r="H98" s="54"/>
       <c r="I98" s="54"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="54"/>
       <c r="B99" s="54"/>
       <c r="C99" s="54"/>
@@ -22145,12 +22162,12 @@
       <c r="H99" s="54"/>
       <c r="I99" s="54"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="54"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="54" t="s">
-        <v>181</v>
-      </c>
+      <c r="B100" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="54"/>
       <c r="D100" s="54"/>
       <c r="E100" s="54"/>
       <c r="F100" s="54"/>
@@ -22158,36 +22175,38 @@
       <c r="H100" s="54"/>
       <c r="I100" s="54"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="54"/>
       <c r="B101" s="54"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54" t="s">
-        <v>182</v>
-      </c>
+      <c r="C101" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="54"/>
       <c r="E101" s="54"/>
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
       <c r="H101" s="54"/>
       <c r="I101" s="54"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="54"/>
       <c r="B102" s="54"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="54" t="s">
-        <v>183</v>
-      </c>
+      <c r="C102" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" s="54"/>
       <c r="E102" s="54"/>
       <c r="F102" s="54"/>
       <c r="G102" s="54"/>
       <c r="H102" s="54"/>
       <c r="I102" s="54"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="54"/>
       <c r="B103" s="54"/>
-      <c r="C103" s="54"/>
+      <c r="C103" s="54" t="s">
+        <v>172</v>
+      </c>
       <c r="D103" s="54"/>
       <c r="E103" s="54"/>
       <c r="F103" s="54"/>
@@ -22195,12 +22214,10 @@
       <c r="H103" s="54"/>
       <c r="I103" s="54"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="54"/>
       <c r="B104" s="54"/>
-      <c r="C104" s="54" t="s">
-        <v>184</v>
-      </c>
+      <c r="C104" s="54"/>
       <c r="D104" s="54"/>
       <c r="E104" s="54"/>
       <c r="F104" s="54"/>
@@ -22208,11 +22225,11 @@
       <c r="H104" s="54"/>
       <c r="I104" s="54"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="54"/>
       <c r="B105" s="54"/>
       <c r="C105" s="54" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D105" s="54"/>
       <c r="E105" s="54"/>
@@ -22221,101 +22238,107 @@
       <c r="H105" s="54"/>
       <c r="I105" s="54"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="54"/>
       <c r="B106" s="54"/>
-      <c r="C106" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D106" s="54"/>
+      <c r="C106" s="54">
+        <v>1</v>
+      </c>
+      <c r="D106" s="54" t="s">
+        <v>174</v>
+      </c>
       <c r="E106" s="54"/>
       <c r="F106" s="54"/>
       <c r="G106" s="54"/>
       <c r="H106" s="54"/>
       <c r="I106" s="54"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="54"/>
       <c r="B107" s="54"/>
-      <c r="C107" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="D107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54" t="s">
+        <v>175</v>
+      </c>
       <c r="E107" s="54"/>
       <c r="F107" s="54"/>
       <c r="G107" s="54"/>
       <c r="H107" s="54"/>
       <c r="I107" s="54"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="54"/>
       <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
+      <c r="C108" s="54">
+        <v>2</v>
+      </c>
+      <c r="D108" s="54" t="s">
+        <v>176</v>
+      </c>
       <c r="E108" s="54"/>
       <c r="F108" s="54"/>
       <c r="G108" s="54"/>
       <c r="H108" s="54"/>
       <c r="I108" s="54"/>
     </row>
-    <row r="109" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="54"/>
-      <c r="B109" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54" t="s">
+        <v>177</v>
+      </c>
       <c r="E109" s="54"/>
       <c r="F109" s="54"/>
       <c r="G109" s="54"/>
       <c r="H109" s="54"/>
       <c r="I109" s="54"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="54"/>
-      <c r="B110" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C110" s="54"/>
-      <c r="D110" s="54"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54">
+        <v>3</v>
+      </c>
+      <c r="D110" s="54" t="s">
+        <v>178</v>
+      </c>
       <c r="E110" s="54"/>
       <c r="F110" s="54"/>
       <c r="G110" s="54"/>
       <c r="H110" s="54"/>
       <c r="I110" s="54"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="54"/>
       <c r="B111" s="54"/>
-      <c r="C111" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="D111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54" t="s">
+        <v>179</v>
+      </c>
       <c r="E111" s="54"/>
       <c r="F111" s="54"/>
       <c r="G111" s="54"/>
       <c r="H111" s="54"/>
       <c r="I111" s="54"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="54"/>
       <c r="B112" s="54"/>
-      <c r="C112" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54" t="s">
+        <v>180</v>
+      </c>
       <c r="E112" s="54"/>
       <c r="F112" s="54"/>
       <c r="G112" s="54"/>
       <c r="H112" s="54"/>
       <c r="I112" s="54"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="54"/>
       <c r="B113" s="54"/>
-      <c r="C113" s="54" t="s">
-        <v>199</v>
-      </c>
+      <c r="C113" s="54"/>
       <c r="D113" s="54"/>
       <c r="E113" s="54"/>
       <c r="F113" s="54"/>
@@ -22323,11 +22346,11 @@
       <c r="H113" s="54"/>
       <c r="I113" s="54"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="54"/>
       <c r="B114" s="54"/>
       <c r="C114" s="54" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D114" s="54"/>
       <c r="E114" s="54"/>
@@ -22336,38 +22359,36 @@
       <c r="H114" s="54"/>
       <c r="I114" s="54"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="54"/>
       <c r="B115" s="54"/>
-      <c r="C115" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54" t="s">
+        <v>182</v>
+      </c>
       <c r="E115" s="54"/>
       <c r="F115" s="54"/>
       <c r="G115" s="54"/>
       <c r="H115" s="54"/>
       <c r="I115" s="54"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="54"/>
       <c r="B116" s="54"/>
-      <c r="C116" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D116" s="54"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54" t="s">
+        <v>183</v>
+      </c>
       <c r="E116" s="54"/>
       <c r="F116" s="54"/>
       <c r="G116" s="54"/>
       <c r="H116" s="54"/>
       <c r="I116" s="54"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="54"/>
       <c r="B117" s="54"/>
-      <c r="C117" s="54" t="s">
-        <v>203</v>
-      </c>
+      <c r="C117" s="54"/>
       <c r="D117" s="54"/>
       <c r="E117" s="54"/>
       <c r="F117" s="54"/>
@@ -22375,10 +22396,12 @@
       <c r="H117" s="54"/>
       <c r="I117" s="54"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="54"/>
       <c r="B118" s="54"/>
-      <c r="C118" s="54"/>
+      <c r="C118" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="D118" s="54"/>
       <c r="E118" s="54"/>
       <c r="F118" s="54"/>
@@ -22386,12 +22409,12 @@
       <c r="H118" s="54"/>
       <c r="I118" s="54"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="54"/>
-      <c r="B119" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C119" s="54"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="54" t="s">
+        <v>185</v>
+      </c>
       <c r="D119" s="54"/>
       <c r="E119" s="54"/>
       <c r="F119" s="54"/>
@@ -22399,23 +22422,25 @@
       <c r="H119" s="54"/>
       <c r="I119" s="54"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="54"/>
       <c r="B120" s="54"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="54" t="s">
-        <v>204</v>
-      </c>
+      <c r="C120" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D120" s="54"/>
       <c r="E120" s="54"/>
       <c r="F120" s="54"/>
       <c r="G120" s="54"/>
       <c r="H120" s="54"/>
       <c r="I120" s="54"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="54"/>
       <c r="B121" s="54"/>
-      <c r="C121" s="54"/>
+      <c r="C121" s="54" t="s">
+        <v>187</v>
+      </c>
       <c r="D121" s="54"/>
       <c r="E121" s="54"/>
       <c r="F121" s="54"/>
@@ -22423,200 +22448,190 @@
       <c r="H121" s="54"/>
       <c r="I121" s="54"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="54"/>
       <c r="B122" s="54"/>
-      <c r="C122" s="54">
-        <v>1</v>
-      </c>
-      <c r="D122" s="54" t="s">
-        <v>205</v>
-      </c>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
       <c r="E122" s="54"/>
       <c r="F122" s="54"/>
       <c r="G122" s="54"/>
       <c r="H122" s="54"/>
       <c r="I122" s="54"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="20">
       <c r="A123" s="54"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54" t="s">
-        <v>206</v>
-      </c>
+      <c r="B123" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="54"/>
       <c r="F123" s="54"/>
       <c r="G123" s="54"/>
       <c r="H123" s="54"/>
       <c r="I123" s="54"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="54"/>
-      <c r="B124" s="54"/>
+      <c r="B124" s="54" t="s">
+        <v>196</v>
+      </c>
       <c r="C124" s="54"/>
       <c r="D124" s="54"/>
-      <c r="E124" s="54" t="s">
-        <v>207</v>
-      </c>
+      <c r="E124" s="54"/>
       <c r="F124" s="54"/>
       <c r="G124" s="54"/>
       <c r="H124" s="54"/>
       <c r="I124" s="54"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="54"/>
       <c r="B125" s="54"/>
-      <c r="C125" s="54"/>
+      <c r="C125" s="54" t="s">
+        <v>197</v>
+      </c>
       <c r="D125" s="54"/>
-      <c r="E125" s="54" t="s">
-        <v>208</v>
-      </c>
+      <c r="E125" s="54"/>
       <c r="F125" s="54"/>
       <c r="G125" s="54"/>
       <c r="H125" s="54"/>
       <c r="I125" s="54"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="54"/>
       <c r="B126" s="54"/>
-      <c r="C126" s="54"/>
+      <c r="C126" s="54" t="s">
+        <v>198</v>
+      </c>
       <c r="D126" s="54"/>
-      <c r="E126" s="54" t="s">
-        <v>209</v>
-      </c>
+      <c r="E126" s="54"/>
       <c r="F126" s="54"/>
       <c r="G126" s="54"/>
       <c r="H126" s="54"/>
       <c r="I126" s="54"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="54"/>
       <c r="B127" s="54"/>
-      <c r="C127" s="54">
-        <v>2</v>
-      </c>
-      <c r="D127" s="54" t="s">
-        <v>210</v>
-      </c>
+      <c r="C127" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D127" s="54"/>
       <c r="E127" s="54"/>
       <c r="F127" s="54"/>
       <c r="G127" s="54"/>
       <c r="H127" s="54"/>
       <c r="I127" s="54"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="54"/>
       <c r="B128" s="54"/>
-      <c r="C128" s="54"/>
+      <c r="C128" s="54" t="s">
+        <v>200</v>
+      </c>
       <c r="D128" s="54"/>
-      <c r="E128" s="54" t="s">
-        <v>211</v>
-      </c>
+      <c r="E128" s="54"/>
       <c r="F128" s="54"/>
       <c r="G128" s="54"/>
       <c r="H128" s="54"/>
       <c r="I128" s="54"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="54"/>
       <c r="B129" s="54"/>
-      <c r="C129" s="54"/>
+      <c r="C129" s="54" t="s">
+        <v>201</v>
+      </c>
       <c r="D129" s="54"/>
-      <c r="E129" s="54" t="s">
-        <v>212</v>
-      </c>
+      <c r="E129" s="54"/>
       <c r="F129" s="54"/>
       <c r="G129" s="54"/>
       <c r="H129" s="54"/>
       <c r="I129" s="54"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="54"/>
       <c r="B130" s="54"/>
-      <c r="C130" s="54"/>
+      <c r="C130" s="54" t="s">
+        <v>202</v>
+      </c>
       <c r="D130" s="54"/>
-      <c r="E130" s="54" t="s">
-        <v>213</v>
-      </c>
+      <c r="E130" s="54"/>
       <c r="F130" s="54"/>
       <c r="G130" s="54"/>
       <c r="H130" s="54"/>
       <c r="I130" s="54"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="54"/>
       <c r="B131" s="54"/>
-      <c r="C131" s="54"/>
+      <c r="C131" s="54" t="s">
+        <v>203</v>
+      </c>
       <c r="D131" s="54"/>
-      <c r="E131" s="54" t="s">
-        <v>214</v>
-      </c>
+      <c r="E131" s="54"/>
       <c r="F131" s="54"/>
       <c r="G131" s="54"/>
       <c r="H131" s="54"/>
       <c r="I131" s="54"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="54"/>
       <c r="B132" s="54"/>
       <c r="C132" s="54"/>
       <c r="D132" s="54"/>
-      <c r="E132" s="54" t="s">
-        <v>215</v>
-      </c>
+      <c r="E132" s="54"/>
       <c r="F132" s="54"/>
       <c r="G132" s="54"/>
       <c r="H132" s="54"/>
       <c r="I132" s="54"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="54"/>
-      <c r="B133" s="54"/>
+      <c r="B133" s="54" t="s">
+        <v>169</v>
+      </c>
       <c r="C133" s="54"/>
       <c r="D133" s="54"/>
-      <c r="E133" s="54" t="s">
-        <v>216</v>
-      </c>
+      <c r="E133" s="54"/>
       <c r="F133" s="54"/>
       <c r="G133" s="54"/>
       <c r="H133" s="54"/>
       <c r="I133" s="54"/>
     </row>
-    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="54"/>
       <c r="B134" s="54"/>
       <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="F134" s="56"/>
-      <c r="G134" s="56"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="56"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D134" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E134" s="54"/>
+      <c r="F134" s="54"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54"/>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="54"/>
       <c r="B135" s="54"/>
       <c r="C135" s="54"/>
       <c r="D135" s="54"/>
-      <c r="E135" s="54" t="s">
-        <v>218</v>
-      </c>
+      <c r="E135" s="54"/>
       <c r="F135" s="54"/>
       <c r="G135" s="54"/>
       <c r="H135" s="54"/>
       <c r="I135" s="54"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="54"/>
       <c r="B136" s="54"/>
       <c r="C136" s="54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D136" s="54" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E136" s="54"/>
       <c r="F136" s="54"/>
@@ -22624,416 +22639,404 @@
       <c r="H136" s="54"/>
       <c r="I136" s="54"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="54"/>
       <c r="B137" s="54"/>
-      <c r="C137" s="54">
-        <v>4</v>
-      </c>
-      <c r="D137" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="E137" s="54"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="54" t="s">
+        <v>206</v>
+      </c>
       <c r="F137" s="54"/>
       <c r="G137" s="54"/>
       <c r="H137" s="54"/>
       <c r="I137" s="54"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="54"/>
       <c r="B138" s="54"/>
-      <c r="C138" s="54">
-        <v>5</v>
-      </c>
-      <c r="D138" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="E138" s="54"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="54" t="s">
+        <v>207</v>
+      </c>
       <c r="F138" s="54"/>
       <c r="G138" s="54"/>
       <c r="H138" s="54"/>
       <c r="I138" s="54"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="54"/>
       <c r="B139" s="54"/>
       <c r="C139" s="54"/>
       <c r="D139" s="54"/>
-      <c r="E139" s="54"/>
+      <c r="E139" s="54" t="s">
+        <v>208</v>
+      </c>
       <c r="F139" s="54"/>
       <c r="G139" s="54"/>
       <c r="H139" s="54"/>
       <c r="I139" s="54"/>
     </row>
-    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="54"/>
       <c r="B140" s="54"/>
       <c r="C140" s="54"/>
       <c r="D140" s="54"/>
-      <c r="E140" s="56"/>
+      <c r="E140" s="54" t="s">
+        <v>209</v>
+      </c>
       <c r="F140" s="54"/>
       <c r="G140" s="54"/>
       <c r="H140" s="54"/>
       <c r="I140" s="54"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="54"/>
       <c r="B141" s="54"/>
-      <c r="C141" s="54"/>
-      <c r="D141" s="54"/>
+      <c r="C141" s="54">
+        <v>2</v>
+      </c>
+      <c r="D141" s="54" t="s">
+        <v>210</v>
+      </c>
       <c r="E141" s="54"/>
       <c r="F141" s="54"/>
       <c r="G141" s="54"/>
       <c r="H141" s="54"/>
       <c r="I141" s="54"/>
     </row>
-    <row r="142" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="54"/>
-      <c r="B142" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="C142" s="55"/>
-      <c r="D142" s="55"/>
-      <c r="E142" s="54"/>
+      <c r="B142" s="54"/>
+      <c r="C142" s="54"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="54" t="s">
+        <v>211</v>
+      </c>
       <c r="F142" s="54"/>
       <c r="G142" s="54"/>
       <c r="H142" s="54"/>
       <c r="I142" s="54"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="54"/>
-      <c r="B143" s="54" t="s">
-        <v>223</v>
-      </c>
+      <c r="B143" s="54"/>
       <c r="C143" s="54"/>
       <c r="D143" s="54"/>
-      <c r="E143" s="54"/>
+      <c r="E143" s="54" t="s">
+        <v>212</v>
+      </c>
       <c r="F143" s="54"/>
       <c r="G143" s="54"/>
       <c r="H143" s="54"/>
       <c r="I143" s="54"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="54"/>
       <c r="B144" s="54"/>
-      <c r="C144" s="54" t="s">
-        <v>224</v>
-      </c>
+      <c r="C144" s="54"/>
       <c r="D144" s="54"/>
-      <c r="E144" s="54"/>
+      <c r="E144" s="54" t="s">
+        <v>213</v>
+      </c>
       <c r="F144" s="54"/>
       <c r="G144" s="54"/>
       <c r="H144" s="54"/>
       <c r="I144" s="54"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="54"/>
       <c r="B145" s="54"/>
-      <c r="C145" s="54" t="s">
-        <v>225</v>
-      </c>
+      <c r="C145" s="54"/>
       <c r="D145" s="54"/>
-      <c r="E145" s="54"/>
+      <c r="E145" s="54" t="s">
+        <v>214</v>
+      </c>
       <c r="F145" s="54"/>
       <c r="G145" s="54"/>
       <c r="H145" s="54"/>
       <c r="I145" s="54"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="54"/>
       <c r="B146" s="54"/>
-      <c r="C146" s="54" t="s">
-        <v>226</v>
-      </c>
+      <c r="C146" s="54"/>
       <c r="D146" s="54"/>
-      <c r="E146" s="54"/>
+      <c r="E146" s="54" t="s">
+        <v>215</v>
+      </c>
       <c r="F146" s="54"/>
       <c r="G146" s="54"/>
       <c r="H146" s="54"/>
       <c r="I146" s="54"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="54"/>
       <c r="B147" s="54"/>
-      <c r="C147" s="54" t="s">
-        <v>227</v>
-      </c>
+      <c r="C147" s="54"/>
       <c r="D147" s="54"/>
-      <c r="E147" s="54"/>
+      <c r="E147" s="54" t="s">
+        <v>216</v>
+      </c>
       <c r="F147" s="54"/>
       <c r="G147" s="54"/>
       <c r="H147" s="54"/>
       <c r="I147" s="54"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="17">
       <c r="A148" s="54"/>
       <c r="B148" s="54"/>
-      <c r="C148" s="54" t="s">
-        <v>228</v>
-      </c>
+      <c r="C148" s="54"/>
       <c r="D148" s="54"/>
-      <c r="E148" s="54"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="54"/>
-      <c r="I148" s="54"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E148" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="F148" s="56"/>
+      <c r="G148" s="56"/>
+      <c r="H148" s="56"/>
+      <c r="I148" s="56"/>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="54"/>
       <c r="B149" s="54"/>
-      <c r="C149" s="54" t="s">
-        <v>229</v>
-      </c>
+      <c r="C149" s="54"/>
       <c r="D149" s="54"/>
-      <c r="E149" s="54"/>
+      <c r="E149" s="54" t="s">
+        <v>218</v>
+      </c>
       <c r="F149" s="54"/>
       <c r="G149" s="54"/>
       <c r="H149" s="54"/>
       <c r="I149" s="54"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="54"/>
       <c r="B150" s="54"/>
-      <c r="C150" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="D150" s="54"/>
+      <c r="C150" s="54">
+        <v>3</v>
+      </c>
+      <c r="D150" s="54" t="s">
+        <v>219</v>
+      </c>
       <c r="E150" s="54"/>
       <c r="F150" s="54"/>
       <c r="G150" s="54"/>
       <c r="H150" s="54"/>
       <c r="I150" s="54"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="54"/>
       <c r="B151" s="54"/>
-      <c r="C151" s="54"/>
-      <c r="D151" s="54"/>
+      <c r="C151" s="54">
+        <v>4</v>
+      </c>
+      <c r="D151" s="54" t="s">
+        <v>220</v>
+      </c>
       <c r="E151" s="54"/>
       <c r="F151" s="54"/>
       <c r="G151" s="54"/>
       <c r="H151" s="54"/>
       <c r="I151" s="54"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="54"/>
-      <c r="B152" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C152" s="54"/>
-      <c r="D152" s="54"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="54">
+        <v>5</v>
+      </c>
+      <c r="D152" s="54" t="s">
+        <v>221</v>
+      </c>
       <c r="E152" s="54"/>
       <c r="F152" s="54"/>
       <c r="G152" s="54"/>
       <c r="H152" s="54"/>
       <c r="I152" s="54"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="54"/>
       <c r="B153" s="54"/>
-      <c r="C153" s="54">
-        <v>1</v>
-      </c>
-      <c r="D153" s="54" t="s">
-        <v>231</v>
-      </c>
+      <c r="C153" s="54"/>
+      <c r="D153" s="54"/>
       <c r="E153" s="54"/>
       <c r="F153" s="54"/>
       <c r="G153" s="54"/>
       <c r="H153" s="54"/>
       <c r="I153" s="54"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="17">
       <c r="A154" s="54"/>
       <c r="B154" s="54"/>
       <c r="C154" s="54"/>
-      <c r="D154" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="E154" s="54"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="56"/>
       <c r="F154" s="54"/>
       <c r="G154" s="54"/>
       <c r="H154" s="54"/>
       <c r="I154" s="54"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="54"/>
       <c r="B155" s="54"/>
-      <c r="C155" s="54">
-        <v>2</v>
-      </c>
-      <c r="D155" s="54" t="s">
-        <v>233</v>
-      </c>
+      <c r="C155" s="54"/>
+      <c r="D155" s="54"/>
       <c r="E155" s="54"/>
       <c r="F155" s="54"/>
       <c r="G155" s="54"/>
       <c r="H155" s="54"/>
       <c r="I155" s="54"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="20">
       <c r="A156" s="54"/>
-      <c r="B156" s="54"/>
-      <c r="C156" s="54"/>
-      <c r="D156" s="54" t="s">
-        <v>234</v>
-      </c>
+      <c r="B156" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="C156" s="55"/>
+      <c r="D156" s="55"/>
       <c r="E156" s="54"/>
       <c r="F156" s="54"/>
       <c r="G156" s="54"/>
       <c r="H156" s="54"/>
       <c r="I156" s="54"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="54"/>
-      <c r="B157" s="54"/>
-      <c r="C157" s="54">
-        <v>3</v>
-      </c>
-      <c r="D157" s="54" t="s">
-        <v>235</v>
-      </c>
+      <c r="B157" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C157" s="54"/>
+      <c r="D157" s="54"/>
       <c r="E157" s="54"/>
       <c r="F157" s="54"/>
       <c r="G157" s="54"/>
       <c r="H157" s="54"/>
       <c r="I157" s="54"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="54"/>
       <c r="B158" s="54"/>
-      <c r="C158" s="54"/>
-      <c r="D158" s="54" t="s">
-        <v>236</v>
-      </c>
+      <c r="C158" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D158" s="54"/>
       <c r="E158" s="54"/>
       <c r="F158" s="54"/>
       <c r="G158" s="54"/>
       <c r="H158" s="54"/>
       <c r="I158" s="54"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="54"/>
       <c r="B159" s="54"/>
-      <c r="C159" s="54">
-        <v>4</v>
-      </c>
-      <c r="D159" s="54" t="s">
-        <v>237</v>
-      </c>
+      <c r="C159" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D159" s="54"/>
       <c r="E159" s="54"/>
       <c r="F159" s="54"/>
       <c r="G159" s="54"/>
       <c r="H159" s="54"/>
       <c r="I159" s="54"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="54"/>
       <c r="B160" s="54"/>
-      <c r="C160" s="54"/>
-      <c r="D160" s="54" t="s">
-        <v>238</v>
-      </c>
+      <c r="C160" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D160" s="54"/>
       <c r="E160" s="54"/>
       <c r="F160" s="54"/>
       <c r="G160" s="54"/>
       <c r="H160" s="54"/>
       <c r="I160" s="54"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="54"/>
       <c r="B161" s="54"/>
-      <c r="C161" s="54">
-        <v>5</v>
-      </c>
-      <c r="D161" s="54" t="s">
-        <v>239</v>
-      </c>
+      <c r="C161" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D161" s="54"/>
       <c r="E161" s="54"/>
       <c r="F161" s="54"/>
       <c r="G161" s="54"/>
       <c r="H161" s="54"/>
       <c r="I161" s="54"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="54"/>
       <c r="B162" s="54"/>
-      <c r="C162" s="54"/>
-      <c r="D162" s="54" t="s">
-        <v>240</v>
-      </c>
+      <c r="C162" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D162" s="54"/>
       <c r="E162" s="54"/>
       <c r="F162" s="54"/>
       <c r="G162" s="54"/>
       <c r="H162" s="54"/>
       <c r="I162" s="54"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="54"/>
       <c r="B163" s="54"/>
-      <c r="C163" s="54">
-        <v>6</v>
-      </c>
-      <c r="D163" s="54" t="s">
-        <v>241</v>
-      </c>
+      <c r="C163" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D163" s="54"/>
       <c r="E163" s="54"/>
       <c r="F163" s="54"/>
       <c r="G163" s="54"/>
       <c r="H163" s="54"/>
       <c r="I163" s="54"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="54"/>
       <c r="B164" s="54"/>
-      <c r="C164" s="54">
-        <v>7</v>
-      </c>
-      <c r="D164" s="54" t="s">
-        <v>242</v>
-      </c>
+      <c r="C164" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D164" s="54"/>
       <c r="E164" s="54"/>
       <c r="F164" s="54"/>
       <c r="G164" s="54"/>
       <c r="H164" s="54"/>
       <c r="I164" s="54"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="54"/>
       <c r="B165" s="54"/>
       <c r="C165" s="54"/>
-      <c r="D165" s="54" t="s">
-        <v>243</v>
-      </c>
+      <c r="D165" s="54"/>
       <c r="E165" s="54"/>
       <c r="F165" s="54"/>
       <c r="G165" s="54"/>
       <c r="H165" s="54"/>
       <c r="I165" s="54"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="54"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="54">
-        <v>8</v>
-      </c>
-      <c r="D166" s="54" t="s">
-        <v>244</v>
-      </c>
+      <c r="B166" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" s="54"/>
+      <c r="D166" s="54"/>
       <c r="E166" s="54"/>
       <c r="F166" s="54"/>
       <c r="G166" s="54"/>
       <c r="H166" s="54"/>
       <c r="I166" s="54"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="54"/>
       <c r="B167" s="54"/>
       <c r="C167" s="54">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E167" s="54"/>
       <c r="F167" s="54"/>
@@ -23041,14 +23044,12 @@
       <c r="H167" s="54"/>
       <c r="I167" s="54"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="54"/>
       <c r="B168" s="54"/>
-      <c r="C168" s="54">
-        <v>10</v>
-      </c>
+      <c r="C168" s="54"/>
       <c r="D168" s="54" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E168" s="54"/>
       <c r="F168" s="54"/>
@@ -23056,14 +23057,14 @@
       <c r="H168" s="54"/>
       <c r="I168" s="54"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="54"/>
       <c r="B169" s="54"/>
       <c r="C169" s="54">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D169" s="54" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E169" s="54"/>
       <c r="F169" s="54"/>
@@ -23071,14 +23072,12 @@
       <c r="H169" s="54"/>
       <c r="I169" s="54"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="54"/>
       <c r="B170" s="54"/>
-      <c r="C170" s="54">
-        <v>12</v>
-      </c>
+      <c r="C170" s="54"/>
       <c r="D170" s="54" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E170" s="54"/>
       <c r="F170" s="54"/>
@@ -23086,188 +23085,212 @@
       <c r="H170" s="54"/>
       <c r="I170" s="54"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="54"/>
       <c r="B171" s="54"/>
-      <c r="C171" s="54"/>
-      <c r="D171" s="54"/>
+      <c r="C171" s="54">
+        <v>3</v>
+      </c>
+      <c r="D171" s="54" t="s">
+        <v>235</v>
+      </c>
       <c r="E171" s="54"/>
       <c r="F171" s="54"/>
       <c r="G171" s="54"/>
       <c r="H171" s="54"/>
       <c r="I171" s="54"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="54"/>
       <c r="B172" s="54"/>
       <c r="C172" s="54"/>
-      <c r="D172" s="54"/>
+      <c r="D172" s="54" t="s">
+        <v>236</v>
+      </c>
       <c r="E172" s="54"/>
       <c r="F172" s="54"/>
       <c r="G172" s="54"/>
       <c r="H172" s="54"/>
       <c r="I172" s="54"/>
     </row>
-    <row r="173" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9">
       <c r="A173" s="54"/>
-      <c r="B173" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C173" s="55"/>
-      <c r="D173" s="55"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="54">
+        <v>4</v>
+      </c>
+      <c r="D173" s="54" t="s">
+        <v>237</v>
+      </c>
       <c r="E173" s="54"/>
       <c r="F173" s="54"/>
       <c r="G173" s="54"/>
       <c r="H173" s="54"/>
       <c r="I173" s="54"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="54"/>
-      <c r="B174" s="54" t="s">
-        <v>250</v>
-      </c>
+      <c r="B174" s="54"/>
       <c r="C174" s="54"/>
-      <c r="D174" s="54"/>
+      <c r="D174" s="54" t="s">
+        <v>238</v>
+      </c>
       <c r="E174" s="54"/>
       <c r="F174" s="54"/>
       <c r="G174" s="54"/>
       <c r="H174" s="54"/>
       <c r="I174" s="54"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="54"/>
       <c r="B175" s="54"/>
-      <c r="C175" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="D175" s="54"/>
+      <c r="C175" s="54">
+        <v>5</v>
+      </c>
+      <c r="D175" s="54" t="s">
+        <v>239</v>
+      </c>
       <c r="E175" s="54"/>
       <c r="F175" s="54"/>
       <c r="G175" s="54"/>
       <c r="H175" s="54"/>
       <c r="I175" s="54"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="54"/>
       <c r="B176" s="54"/>
-      <c r="C176" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="D176" s="54"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="54" t="s">
+        <v>240</v>
+      </c>
       <c r="E176" s="54"/>
       <c r="F176" s="54"/>
       <c r="G176" s="54"/>
       <c r="H176" s="54"/>
       <c r="I176" s="54"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="54"/>
       <c r="B177" s="54"/>
-      <c r="C177" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="D177" s="54"/>
+      <c r="C177" s="54">
+        <v>6</v>
+      </c>
+      <c r="D177" s="54" t="s">
+        <v>241</v>
+      </c>
       <c r="E177" s="54"/>
       <c r="F177" s="54"/>
       <c r="G177" s="54"/>
       <c r="H177" s="54"/>
       <c r="I177" s="54"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="54"/>
       <c r="B178" s="54"/>
-      <c r="C178" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="D178" s="54"/>
+      <c r="C178" s="54">
+        <v>7</v>
+      </c>
+      <c r="D178" s="54" t="s">
+        <v>242</v>
+      </c>
       <c r="E178" s="54"/>
       <c r="F178" s="54"/>
       <c r="G178" s="54"/>
       <c r="H178" s="54"/>
       <c r="I178" s="54"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="54"/>
       <c r="B179" s="54"/>
-      <c r="C179" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="D179" s="54"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="54" t="s">
+        <v>243</v>
+      </c>
       <c r="E179" s="54"/>
       <c r="F179" s="54"/>
       <c r="G179" s="54"/>
       <c r="H179" s="54"/>
       <c r="I179" s="54"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="54"/>
       <c r="B180" s="54"/>
-      <c r="C180" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="D180" s="54"/>
+      <c r="C180" s="54">
+        <v>8</v>
+      </c>
+      <c r="D180" s="54" t="s">
+        <v>244</v>
+      </c>
       <c r="E180" s="54"/>
       <c r="F180" s="54"/>
       <c r="G180" s="54"/>
       <c r="H180" s="54"/>
       <c r="I180" s="54"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="54"/>
       <c r="B181" s="54"/>
-      <c r="C181" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="D181" s="54"/>
+      <c r="C181" s="54">
+        <v>9</v>
+      </c>
+      <c r="D181" s="54" t="s">
+        <v>245</v>
+      </c>
       <c r="E181" s="54"/>
       <c r="F181" s="54"/>
       <c r="G181" s="54"/>
       <c r="H181" s="54"/>
       <c r="I181" s="54"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="54"/>
       <c r="B182" s="54"/>
-      <c r="C182" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="D182" s="54"/>
+      <c r="C182" s="54">
+        <v>10</v>
+      </c>
+      <c r="D182" s="54" t="s">
+        <v>246</v>
+      </c>
       <c r="E182" s="54"/>
       <c r="F182" s="54"/>
       <c r="G182" s="54"/>
       <c r="H182" s="54"/>
       <c r="I182" s="54"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="54"/>
       <c r="B183" s="54"/>
-      <c r="C183" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="D183" s="54"/>
+      <c r="C183" s="54">
+        <v>11</v>
+      </c>
+      <c r="D183" s="54" t="s">
+        <v>247</v>
+      </c>
       <c r="E183" s="54"/>
       <c r="F183" s="54"/>
       <c r="G183" s="54"/>
       <c r="H183" s="54"/>
       <c r="I183" s="54"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="54"/>
       <c r="B184" s="54"/>
-      <c r="C184" s="54"/>
-      <c r="D184" s="54"/>
+      <c r="C184" s="54">
+        <v>12</v>
+      </c>
+      <c r="D184" s="54" t="s">
+        <v>248</v>
+      </c>
       <c r="E184" s="54"/>
       <c r="F184" s="54"/>
       <c r="G184" s="54"/>
       <c r="H184" s="54"/>
       <c r="I184" s="54"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="54"/>
       <c r="B185" s="54"/>
-      <c r="C185" s="54" t="s">
-        <v>260</v>
-      </c>
+      <c r="C185" s="54"/>
       <c r="D185" s="54"/>
       <c r="E185" s="54"/>
       <c r="F185" s="54"/>
@@ -23275,12 +23298,10 @@
       <c r="H185" s="54"/>
       <c r="I185" s="54"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="54"/>
       <c r="B186" s="54"/>
-      <c r="C186" s="54" t="s">
-        <v>261</v>
-      </c>
+      <c r="C186" s="54"/>
       <c r="D186" s="54"/>
       <c r="E186" s="54"/>
       <c r="F186" s="54"/>
@@ -23288,21 +23309,23 @@
       <c r="H186" s="54"/>
       <c r="I186" s="54"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="20">
       <c r="A187" s="54"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="54"/>
-      <c r="D187" s="54"/>
+      <c r="B187" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C187" s="55"/>
+      <c r="D187" s="55"/>
       <c r="E187" s="54"/>
       <c r="F187" s="54"/>
       <c r="G187" s="54"/>
       <c r="H187" s="54"/>
       <c r="I187" s="54"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="54"/>
       <c r="B188" s="54" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="C188" s="54"/>
       <c r="D188" s="54"/>
@@ -23312,13 +23335,11 @@
       <c r="H188" s="54"/>
       <c r="I188" s="54"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="54"/>
-      <c r="B189" s="54">
-        <v>1</v>
-      </c>
+      <c r="B189" s="54"/>
       <c r="C189" s="54" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D189" s="54"/>
       <c r="E189" s="54"/>
@@ -23327,13 +23348,11 @@
       <c r="H189" s="54"/>
       <c r="I189" s="54"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="54"/>
-      <c r="B190" s="54">
-        <v>2</v>
-      </c>
+      <c r="B190" s="54"/>
       <c r="C190" s="54" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D190" s="54"/>
       <c r="E190" s="54"/>
@@ -23342,13 +23361,11 @@
       <c r="H190" s="54"/>
       <c r="I190" s="54"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="54"/>
-      <c r="B191" s="54">
-        <v>3</v>
-      </c>
+      <c r="B191" s="54"/>
       <c r="C191" s="54" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D191" s="54"/>
       <c r="E191" s="54"/>
@@ -23357,11 +23374,11 @@
       <c r="H191" s="54"/>
       <c r="I191" s="54"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="54"/>
       <c r="B192" s="54"/>
       <c r="C192" s="54" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D192" s="54"/>
       <c r="E192" s="54"/>
@@ -23370,11 +23387,11 @@
       <c r="H192" s="54"/>
       <c r="I192" s="54"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="54"/>
       <c r="B193" s="54"/>
       <c r="C193" s="54" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D193" s="54"/>
       <c r="E193" s="54"/>
@@ -23383,10 +23400,12 @@
       <c r="H193" s="54"/>
       <c r="I193" s="54"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="54"/>
       <c r="B194" s="54"/>
-      <c r="C194" s="54"/>
+      <c r="C194" s="54" t="s">
+        <v>256</v>
+      </c>
       <c r="D194" s="54"/>
       <c r="E194" s="54"/>
       <c r="F194" s="54"/>
@@ -23394,10 +23413,12 @@
       <c r="H194" s="54"/>
       <c r="I194" s="54"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="54"/>
       <c r="B195" s="54"/>
-      <c r="C195" s="54"/>
+      <c r="C195" s="54" t="s">
+        <v>257</v>
+      </c>
       <c r="D195" s="54"/>
       <c r="E195" s="54"/>
       <c r="F195" s="54"/>
@@ -23405,10 +23426,12 @@
       <c r="H195" s="54"/>
       <c r="I195" s="54"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="54"/>
       <c r="B196" s="54"/>
-      <c r="C196" s="54"/>
+      <c r="C196" s="54" t="s">
+        <v>258</v>
+      </c>
       <c r="D196" s="54"/>
       <c r="E196" s="54"/>
       <c r="F196" s="54"/>
@@ -23416,12 +23439,12 @@
       <c r="H196" s="54"/>
       <c r="I196" s="54"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="54"/>
-      <c r="B197" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="C197" s="54"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="54" t="s">
+        <v>259</v>
+      </c>
       <c r="D197" s="54"/>
       <c r="E197" s="54"/>
       <c r="F197" s="54"/>
@@ -23429,68 +23452,60 @@
       <c r="H197" s="54"/>
       <c r="I197" s="54"/>
     </row>
-    <row r="198" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="54"/>
-      <c r="B198" s="54">
-        <v>1</v>
-      </c>
-      <c r="C198" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="D198" s="57"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="54"/>
+      <c r="D198" s="54"/>
       <c r="E198" s="54"/>
       <c r="F198" s="54"/>
       <c r="G198" s="54"/>
       <c r="H198" s="54"/>
       <c r="I198" s="54"/>
     </row>
-    <row r="199" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="54"/>
       <c r="B199" s="54"/>
-      <c r="C199" s="57"/>
-      <c r="D199" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="E199" s="57"/>
-      <c r="F199" s="57"/>
+      <c r="C199" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="D199" s="54"/>
+      <c r="E199" s="54"/>
+      <c r="F199" s="54"/>
       <c r="G199" s="54"/>
       <c r="H199" s="54"/>
       <c r="I199" s="54"/>
     </row>
-    <row r="200" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="54"/>
       <c r="B200" s="54"/>
-      <c r="C200" s="57"/>
-      <c r="D200" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="E200" s="57"/>
-      <c r="F200" s="57"/>
-      <c r="G200" s="57"/>
-      <c r="H200" s="57"/>
-      <c r="I200" s="57"/>
-    </row>
-    <row r="201" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C200" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D200" s="54"/>
+      <c r="E200" s="54"/>
+      <c r="F200" s="54"/>
+      <c r="G200" s="54"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="54"/>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="54"/>
       <c r="B201" s="54"/>
-      <c r="C201" s="57"/>
-      <c r="D201" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="E201" s="57"/>
-      <c r="F201" s="57"/>
-      <c r="G201" s="57"/>
-      <c r="H201" s="57"/>
-      <c r="I201" s="57"/>
-    </row>
-    <row r="202" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C201" s="54"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="54"/>
+      <c r="G201" s="54"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="54"/>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="54"/>
-      <c r="B202" s="54">
-        <v>2</v>
-      </c>
-      <c r="C202" s="54" t="s">
-        <v>272</v>
-      </c>
+      <c r="B202" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C202" s="54"/>
       <c r="D202" s="54"/>
       <c r="E202" s="54"/>
       <c r="F202" s="54"/>
@@ -23498,13 +23513,13 @@
       <c r="H202" s="54"/>
       <c r="I202" s="54"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="54"/>
       <c r="B203" s="54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C203" s="54" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D203" s="54"/>
       <c r="E203" s="54"/>
@@ -23513,28 +23528,28 @@
       <c r="H203" s="54"/>
       <c r="I203" s="54"/>
     </row>
-    <row r="204" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="54"/>
-      <c r="B204" s="58">
-        <v>4</v>
-      </c>
-      <c r="C204" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="D204" s="58"/>
-      <c r="E204" s="58"/>
-      <c r="F204" s="58"/>
-      <c r="G204" s="58"/>
-      <c r="H204" s="58"/>
-      <c r="I204" s="58"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="54">
+        <v>2</v>
+      </c>
+      <c r="C204" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D204" s="54"/>
+      <c r="E204" s="54"/>
+      <c r="F204" s="54"/>
+      <c r="G204" s="54"/>
+      <c r="H204" s="54"/>
+      <c r="I204" s="54"/>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="54"/>
       <c r="B205" s="54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C205" s="54" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D205" s="54"/>
       <c r="E205" s="54"/>
@@ -23543,10 +23558,12 @@
       <c r="H205" s="54"/>
       <c r="I205" s="54"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="54"/>
       <c r="B206" s="54"/>
-      <c r="C206" s="54"/>
+      <c r="C206" s="54" t="s">
+        <v>265</v>
+      </c>
       <c r="D206" s="54"/>
       <c r="E206" s="54"/>
       <c r="F206" s="54"/>
@@ -23554,10 +23571,12 @@
       <c r="H206" s="54"/>
       <c r="I206" s="54"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="54"/>
       <c r="B207" s="54"/>
-      <c r="C207" s="54"/>
+      <c r="C207" s="54" t="s">
+        <v>266</v>
+      </c>
       <c r="D207" s="54"/>
       <c r="E207" s="54"/>
       <c r="F207" s="54"/>
@@ -23565,24 +23584,20 @@
       <c r="H207" s="54"/>
       <c r="I207" s="54"/>
     </row>
-    <row r="208" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9">
       <c r="A208" s="54"/>
-      <c r="B208" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="C208" s="55"/>
-      <c r="D208" s="55"/>
+      <c r="B208" s="54"/>
+      <c r="C208" s="54"/>
+      <c r="D208" s="54"/>
       <c r="E208" s="54"/>
       <c r="F208" s="54"/>
       <c r="G208" s="54"/>
       <c r="H208" s="54"/>
       <c r="I208" s="54"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="54"/>
-      <c r="B209" s="54" t="s">
-        <v>277</v>
-      </c>
+      <c r="B209" s="54"/>
       <c r="C209" s="54"/>
       <c r="D209" s="54"/>
       <c r="E209" s="54"/>
@@ -23591,12 +23606,10 @@
       <c r="H209" s="54"/>
       <c r="I209" s="54"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="54"/>
       <c r="B210" s="54"/>
-      <c r="C210" s="54" t="s">
-        <v>278</v>
-      </c>
+      <c r="C210" s="54"/>
       <c r="D210" s="54"/>
       <c r="E210" s="54"/>
       <c r="F210" s="54"/>
@@ -23604,12 +23617,12 @@
       <c r="H210" s="54"/>
       <c r="I210" s="54"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="54"/>
-      <c r="B211" s="54"/>
-      <c r="C211" s="54" t="s">
-        <v>279</v>
-      </c>
+      <c r="B211" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="C211" s="54"/>
       <c r="D211" s="54"/>
       <c r="E211" s="54"/>
       <c r="F211" s="54"/>
@@ -23617,62 +23630,68 @@
       <c r="H211" s="54"/>
       <c r="I211" s="54"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="17">
       <c r="A212" s="54"/>
-      <c r="B212" s="54"/>
-      <c r="C212" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="D212" s="54"/>
+      <c r="B212" s="54">
+        <v>1</v>
+      </c>
+      <c r="C212" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D212" s="57"/>
       <c r="E212" s="54"/>
       <c r="F212" s="54"/>
       <c r="G212" s="54"/>
       <c r="H212" s="54"/>
       <c r="I212" s="54"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="17">
       <c r="A213" s="54"/>
       <c r="B213" s="54"/>
-      <c r="C213" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="D213" s="54"/>
-      <c r="E213" s="54"/>
-      <c r="F213" s="54"/>
+      <c r="C213" s="57"/>
+      <c r="D213" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E213" s="57"/>
+      <c r="F213" s="57"/>
       <c r="G213" s="54"/>
       <c r="H213" s="54"/>
       <c r="I213" s="54"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="17">
       <c r="A214" s="54"/>
       <c r="B214" s="54"/>
-      <c r="C214" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="D214" s="54"/>
-      <c r="E214" s="54"/>
-      <c r="F214" s="54"/>
-      <c r="G214" s="54"/>
-      <c r="H214" s="54"/>
-      <c r="I214" s="54"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C214" s="57"/>
+      <c r="D214" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="E214" s="57"/>
+      <c r="F214" s="57"/>
+      <c r="G214" s="57"/>
+      <c r="H214" s="57"/>
+      <c r="I214" s="57"/>
+    </row>
+    <row r="215" spans="1:9" ht="17">
       <c r="A215" s="54"/>
       <c r="B215" s="54"/>
-      <c r="C215" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="D215" s="54"/>
-      <c r="E215" s="54"/>
-      <c r="F215" s="54"/>
-      <c r="G215" s="54"/>
-      <c r="H215" s="54"/>
-      <c r="I215" s="54"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C215" s="57"/>
+      <c r="D215" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="E215" s="57"/>
+      <c r="F215" s="57"/>
+      <c r="G215" s="57"/>
+      <c r="H215" s="57"/>
+      <c r="I215" s="57"/>
+    </row>
+    <row r="216" spans="1:9" ht="17">
       <c r="A216" s="54"/>
-      <c r="B216" s="54"/>
-      <c r="C216" s="54"/>
+      <c r="B216" s="54">
+        <v>2</v>
+      </c>
+      <c r="C216" s="54" t="s">
+        <v>272</v>
+      </c>
       <c r="D216" s="54"/>
       <c r="E216" s="54"/>
       <c r="F216" s="54"/>
@@ -23680,11 +23699,13 @@
       <c r="H216" s="54"/>
       <c r="I216" s="54"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="54"/>
-      <c r="B217" s="54"/>
+      <c r="B217" s="54">
+        <v>3</v>
+      </c>
       <c r="C217" s="54" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D217" s="54"/>
       <c r="E217" s="54"/>
@@ -23693,24 +23714,28 @@
       <c r="H217" s="54"/>
       <c r="I217" s="54"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="17">
       <c r="A218" s="54"/>
-      <c r="B218" s="54"/>
-      <c r="C218" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="D218" s="54"/>
-      <c r="E218" s="54"/>
-      <c r="F218" s="54"/>
-      <c r="G218" s="54"/>
-      <c r="H218" s="54"/>
-      <c r="I218" s="54"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="58">
+        <v>4</v>
+      </c>
+      <c r="C218" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="D218" s="58"/>
+      <c r="E218" s="58"/>
+      <c r="F218" s="58"/>
+      <c r="G218" s="58"/>
+      <c r="H218" s="58"/>
+      <c r="I218" s="58"/>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="54"/>
-      <c r="B219" s="54"/>
+      <c r="B219" s="54">
+        <v>5</v>
+      </c>
       <c r="C219" s="54" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D219" s="54"/>
       <c r="E219" s="54"/>
@@ -23719,27 +23744,21 @@
       <c r="H219" s="54"/>
       <c r="I219" s="54"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" s="54"/>
       <c r="B220" s="54"/>
-      <c r="C220" s="54" t="s">
-        <v>287</v>
-      </c>
+      <c r="C220" s="54"/>
       <c r="D220" s="54"/>
       <c r="E220" s="54"/>
       <c r="F220" s="54"/>
       <c r="G220" s="54"/>
       <c r="H220" s="54"/>
-      <c r="I220" s="54" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I220" s="54"/>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="54"/>
       <c r="B221" s="54"/>
-      <c r="C221" s="54" t="s">
-        <v>289</v>
-      </c>
+      <c r="C221" s="54"/>
       <c r="D221" s="54"/>
       <c r="E221" s="54"/>
       <c r="F221" s="54"/>
@@ -23747,23 +23766,25 @@
       <c r="H221" s="54"/>
       <c r="I221" s="54"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="20">
       <c r="A222" s="54"/>
-      <c r="B222" s="54"/>
-      <c r="C222" s="54"/>
-      <c r="D222" s="54"/>
+      <c r="B222" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C222" s="55"/>
+      <c r="D222" s="55"/>
       <c r="E222" s="54"/>
       <c r="F222" s="54"/>
       <c r="G222" s="54"/>
       <c r="H222" s="54"/>
       <c r="I222" s="54"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="54"/>
-      <c r="B223" s="54"/>
-      <c r="C223" s="54" t="s">
-        <v>290</v>
-      </c>
+      <c r="B223" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="C223" s="54"/>
       <c r="D223" s="54"/>
       <c r="E223" s="54"/>
       <c r="F223" s="54"/>
@@ -23771,11 +23792,11 @@
       <c r="H223" s="54"/>
       <c r="I223" s="54"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="54"/>
       <c r="B224" s="54"/>
       <c r="C224" s="54" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D224" s="54"/>
       <c r="E224" s="54"/>
@@ -23784,10 +23805,12 @@
       <c r="H224" s="54"/>
       <c r="I224" s="54"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="54"/>
       <c r="B225" s="54"/>
-      <c r="C225" s="54"/>
+      <c r="C225" s="54" t="s">
+        <v>279</v>
+      </c>
       <c r="D225" s="54"/>
       <c r="E225" s="54"/>
       <c r="F225" s="54"/>
@@ -23795,12 +23818,12 @@
       <c r="H225" s="54"/>
       <c r="I225" s="54"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="54"/>
-      <c r="B226" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C226" s="54"/>
+      <c r="B226" s="54"/>
+      <c r="C226" s="54" t="s">
+        <v>280</v>
+      </c>
       <c r="D226" s="54"/>
       <c r="E226" s="54"/>
       <c r="F226" s="54"/>
@@ -23808,13 +23831,11 @@
       <c r="H226" s="54"/>
       <c r="I226" s="54"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="54"/>
-      <c r="B227" s="54">
-        <v>1</v>
-      </c>
+      <c r="B227" s="54"/>
       <c r="C227" s="54" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D227" s="54"/>
       <c r="E227" s="54"/>
@@ -23823,52 +23844,48 @@
       <c r="H227" s="54"/>
       <c r="I227" s="54"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="54"/>
       <c r="B228" s="54"/>
-      <c r="C228" s="54"/>
-      <c r="D228" s="54" t="s">
-        <v>269</v>
-      </c>
+      <c r="C228" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="D228" s="54"/>
       <c r="E228" s="54"/>
       <c r="F228" s="54"/>
       <c r="G228" s="54"/>
       <c r="H228" s="54"/>
       <c r="I228" s="54"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="54"/>
       <c r="B229" s="54"/>
-      <c r="C229" s="54"/>
-      <c r="D229" s="54" t="s">
-        <v>270</v>
-      </c>
+      <c r="C229" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="D229" s="54"/>
       <c r="E229" s="54"/>
       <c r="F229" s="54"/>
       <c r="G229" s="54"/>
       <c r="H229" s="54"/>
       <c r="I229" s="54"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="54"/>
       <c r="B230" s="54"/>
       <c r="C230" s="54"/>
-      <c r="D230" s="54" t="s">
-        <v>271</v>
-      </c>
+      <c r="D230" s="54"/>
       <c r="E230" s="54"/>
       <c r="F230" s="54"/>
       <c r="G230" s="54"/>
       <c r="H230" s="54"/>
       <c r="I230" s="54"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="54"/>
-      <c r="B231" s="54">
-        <v>2</v>
-      </c>
+      <c r="B231" s="54"/>
       <c r="C231" s="54" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D231" s="54"/>
       <c r="E231" s="54"/>
@@ -23877,13 +23894,11 @@
       <c r="H231" s="54"/>
       <c r="I231" s="54"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="54"/>
-      <c r="B232" s="54">
-        <v>3</v>
-      </c>
+      <c r="B232" s="54"/>
       <c r="C232" s="54" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D232" s="54"/>
       <c r="E232" s="54"/>
@@ -23892,13 +23907,11 @@
       <c r="H232" s="54"/>
       <c r="I232" s="54"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="54"/>
-      <c r="B233" s="54">
-        <v>4</v>
-      </c>
+      <c r="B233" s="54"/>
       <c r="C233" s="54" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D233" s="54"/>
       <c r="E233" s="54"/>
@@ -23907,25 +23920,27 @@
       <c r="H233" s="54"/>
       <c r="I233" s="54"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="54"/>
-      <c r="B234" s="54">
-        <v>5</v>
-      </c>
+      <c r="B234" s="54"/>
       <c r="C234" s="54" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D234" s="54"/>
       <c r="E234" s="54"/>
       <c r="F234" s="54"/>
       <c r="G234" s="54"/>
       <c r="H234" s="54"/>
-      <c r="I234" s="54"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I234" s="54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="54"/>
       <c r="B235" s="54"/>
-      <c r="C235" s="54"/>
+      <c r="C235" s="54" t="s">
+        <v>289</v>
+      </c>
       <c r="D235" s="54"/>
       <c r="E235" s="54"/>
       <c r="F235" s="54"/>
@@ -23933,11 +23948,9 @@
       <c r="H235" s="54"/>
       <c r="I235" s="54"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="54"/>
-      <c r="B236" s="54" t="s">
-        <v>293</v>
-      </c>
+      <c r="B236" s="54"/>
       <c r="C236" s="54"/>
       <c r="D236" s="54"/>
       <c r="E236" s="54"/>
@@ -23946,41 +23959,33 @@
       <c r="H236" s="54"/>
       <c r="I236" s="54"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
       <c r="A237" s="54"/>
-      <c r="B237" s="54">
-        <v>1</v>
-      </c>
+      <c r="B237" s="54"/>
       <c r="C237" s="54" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D237" s="54"/>
       <c r="E237" s="54"/>
       <c r="F237" s="54"/>
-      <c r="G237" s="54" t="s">
-        <v>295</v>
-      </c>
+      <c r="G237" s="54"/>
       <c r="H237" s="54"/>
       <c r="I237" s="54"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9">
       <c r="A238" s="54"/>
-      <c r="B238" s="54">
-        <v>2</v>
-      </c>
+      <c r="B238" s="54"/>
       <c r="C238" s="54" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D238" s="54"/>
       <c r="E238" s="54"/>
       <c r="F238" s="54"/>
-      <c r="G238" s="54" t="s">
-        <v>297</v>
-      </c>
+      <c r="G238" s="54"/>
       <c r="H238" s="54"/>
       <c r="I238" s="54"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9">
       <c r="A239" s="54"/>
       <c r="B239" s="54"/>
       <c r="C239" s="54"/>
@@ -23991,9 +23996,11 @@
       <c r="H239" s="54"/>
       <c r="I239" s="54"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240" s="54"/>
-      <c r="B240" s="54"/>
+      <c r="B240" s="54" t="s">
+        <v>169</v>
+      </c>
       <c r="C240" s="54"/>
       <c r="D240" s="54"/>
       <c r="E240" s="54"/>
@@ -24002,131 +24009,137 @@
       <c r="H240" s="54"/>
       <c r="I240" s="54"/>
     </row>
-    <row r="241" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9">
       <c r="A241" s="54"/>
-      <c r="B241" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="C241" s="55"/>
-      <c r="D241" s="55"/>
+      <c r="B241" s="54">
+        <v>1</v>
+      </c>
+      <c r="C241" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D241" s="54"/>
       <c r="E241" s="54"/>
       <c r="F241" s="54"/>
       <c r="G241" s="54"/>
       <c r="H241" s="54"/>
       <c r="I241" s="54"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="54"/>
       <c r="B242" s="54"/>
-      <c r="C242" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="D242" s="54"/>
+      <c r="C242" s="54"/>
+      <c r="D242" s="54" t="s">
+        <v>269</v>
+      </c>
       <c r="E242" s="54"/>
       <c r="F242" s="54"/>
       <c r="G242" s="54"/>
       <c r="H242" s="54"/>
       <c r="I242" s="54"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="54"/>
       <c r="B243" s="54"/>
-      <c r="C243" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="D243" s="54"/>
+      <c r="C243" s="54"/>
+      <c r="D243" s="54" t="s">
+        <v>270</v>
+      </c>
       <c r="E243" s="54"/>
       <c r="F243" s="54"/>
       <c r="G243" s="54"/>
       <c r="H243" s="54"/>
       <c r="I243" s="54"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="54"/>
       <c r="B244" s="54"/>
-      <c r="C244" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="D244" s="54"/>
+      <c r="C244" s="54"/>
+      <c r="D244" s="54" t="s">
+        <v>271</v>
+      </c>
       <c r="E244" s="54"/>
       <c r="F244" s="54"/>
       <c r="G244" s="54"/>
       <c r="H244" s="54"/>
       <c r="I244" s="54"/>
     </row>
-    <row r="245" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="54"/>
-      <c r="B245" s="54"/>
-      <c r="C245" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="D245" s="58"/>
-      <c r="E245" s="58"/>
+      <c r="B245" s="54">
+        <v>2</v>
+      </c>
+      <c r="C245" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="D245" s="54"/>
+      <c r="E245" s="54"/>
       <c r="F245" s="54"/>
       <c r="G245" s="54"/>
       <c r="H245" s="54"/>
       <c r="I245" s="54"/>
     </row>
-    <row r="246" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="54"/>
-      <c r="B246" s="54"/>
-      <c r="C246" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="D246" s="58"/>
-      <c r="E246" s="58"/>
-      <c r="F246" s="58"/>
-      <c r="G246" s="58"/>
-      <c r="H246" s="58"/>
-      <c r="I246" s="58"/>
-    </row>
-    <row r="247" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B246" s="54">
+        <v>3</v>
+      </c>
+      <c r="C246" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="D246" s="54"/>
+      <c r="E246" s="54"/>
+      <c r="F246" s="54"/>
+      <c r="G246" s="54"/>
+      <c r="H246" s="54"/>
+      <c r="I246" s="54"/>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" s="54"/>
-      <c r="B247" s="54"/>
-      <c r="C247" s="58" t="s">
-        <v>304</v>
-      </c>
-      <c r="D247" s="58"/>
-      <c r="E247" s="58"/>
-      <c r="F247" s="58"/>
-      <c r="G247" s="58"/>
-      <c r="H247" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="I247" s="58"/>
-    </row>
-    <row r="248" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B247" s="54">
+        <v>4</v>
+      </c>
+      <c r="C247" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D247" s="54"/>
+      <c r="E247" s="54"/>
+      <c r="F247" s="54"/>
+      <c r="G247" s="54"/>
+      <c r="H247" s="54"/>
+      <c r="I247" s="54"/>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" s="54"/>
-      <c r="B248" s="54"/>
-      <c r="C248" s="58" t="s">
-        <v>306</v>
-      </c>
-      <c r="D248" s="58"/>
-      <c r="E248" s="58"/>
-      <c r="F248" s="58"/>
+      <c r="B248" s="54">
+        <v>5</v>
+      </c>
+      <c r="C248" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D248" s="54"/>
+      <c r="E248" s="54"/>
+      <c r="F248" s="54"/>
       <c r="G248" s="54"/>
       <c r="H248" s="54"/>
       <c r="I248" s="54"/>
     </row>
-    <row r="249" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="54"/>
       <c r="B249" s="54"/>
-      <c r="C249" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="D249" s="58"/>
-      <c r="E249" s="58"/>
-      <c r="F249" s="58"/>
+      <c r="C249" s="54"/>
+      <c r="D249" s="54"/>
+      <c r="E249" s="54"/>
+      <c r="F249" s="54"/>
       <c r="G249" s="54"/>
       <c r="H249" s="54"/>
       <c r="I249" s="54"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="54"/>
-      <c r="B250" s="54"/>
-      <c r="C250" s="54" t="s">
-        <v>308</v>
-      </c>
+      <c r="B250" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="C250" s="54"/>
       <c r="D250" s="54"/>
       <c r="E250" s="54"/>
       <c r="F250" s="54"/>
@@ -24134,84 +24147,80 @@
       <c r="H250" s="54"/>
       <c r="I250" s="54"/>
     </row>
-    <row r="251" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="54"/>
-      <c r="B251" s="54"/>
+      <c r="B251" s="54">
+        <v>1</v>
+      </c>
       <c r="C251" s="54" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D251" s="54"/>
       <c r="E251" s="54"/>
       <c r="F251" s="54"/>
-      <c r="G251" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="H251" s="59"/>
-      <c r="I251" s="59"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G251" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="H251" s="54"/>
+      <c r="I251" s="54"/>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" s="54"/>
-      <c r="B252" s="54"/>
+      <c r="B252" s="54">
+        <v>2</v>
+      </c>
       <c r="C252" s="54" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D252" s="54"/>
       <c r="E252" s="54"/>
       <c r="F252" s="54"/>
-      <c r="G252" s="54"/>
+      <c r="G252" s="54" t="s">
+        <v>297</v>
+      </c>
       <c r="H252" s="54"/>
       <c r="I252" s="54"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253" s="54"/>
       <c r="B253" s="54"/>
-      <c r="C253" s="54" t="s">
-        <v>312</v>
-      </c>
+      <c r="C253" s="54"/>
       <c r="D253" s="54"/>
       <c r="E253" s="54"/>
       <c r="F253" s="54"/>
       <c r="G253" s="54"/>
-      <c r="H253" s="54" t="s">
-        <v>313</v>
-      </c>
+      <c r="H253" s="54"/>
       <c r="I253" s="54"/>
     </row>
-    <row r="254" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254" s="54"/>
       <c r="B254" s="54"/>
-      <c r="C254" s="54" t="s">
-        <v>314</v>
-      </c>
+      <c r="C254" s="54"/>
       <c r="D254" s="54"/>
       <c r="E254" s="54"/>
       <c r="F254" s="54"/>
       <c r="G254" s="54"/>
-      <c r="H254" s="54" t="s">
-        <v>315</v>
-      </c>
+      <c r="H254" s="54"/>
       <c r="I254" s="54"/>
     </row>
-    <row r="255" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="20">
       <c r="A255" s="54"/>
-      <c r="B255" s="54"/>
-      <c r="C255" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="D255" s="54"/>
+      <c r="B255" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="C255" s="55"/>
+      <c r="D255" s="55"/>
       <c r="E255" s="54"/>
       <c r="F255" s="54"/>
       <c r="G255" s="54"/>
-      <c r="H255" s="54" t="s">
-        <v>317</v>
-      </c>
+      <c r="H255" s="54"/>
       <c r="I255" s="54"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" s="54"/>
       <c r="B256" s="54"/>
       <c r="C256" s="54" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D256" s="54"/>
       <c r="E256" s="54"/>
@@ -24220,8 +24229,205 @@
       <c r="H256" s="54"/>
       <c r="I256" s="54"/>
     </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="54"/>
+      <c r="B257" s="54"/>
+      <c r="C257" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="D257" s="54"/>
+      <c r="E257" s="54"/>
+      <c r="F257" s="54"/>
+      <c r="G257" s="54"/>
+      <c r="H257" s="54"/>
+      <c r="I257" s="54"/>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="54"/>
+      <c r="B258" s="54"/>
+      <c r="C258" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="D258" s="54"/>
+      <c r="E258" s="54"/>
+      <c r="F258" s="54"/>
+      <c r="G258" s="54"/>
+      <c r="H258" s="54"/>
+      <c r="I258" s="54"/>
+    </row>
+    <row r="259" spans="1:9" ht="17">
+      <c r="A259" s="54"/>
+      <c r="B259" s="54"/>
+      <c r="C259" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="D259" s="58"/>
+      <c r="E259" s="58"/>
+      <c r="F259" s="54"/>
+      <c r="G259" s="54"/>
+      <c r="H259" s="54"/>
+      <c r="I259" s="54"/>
+    </row>
+    <row r="260" spans="1:9" ht="17">
+      <c r="A260" s="54"/>
+      <c r="B260" s="54"/>
+      <c r="C260" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="D260" s="58"/>
+      <c r="E260" s="58"/>
+      <c r="F260" s="58"/>
+      <c r="G260" s="58"/>
+      <c r="H260" s="58"/>
+      <c r="I260" s="58"/>
+    </row>
+    <row r="261" spans="1:9" ht="17">
+      <c r="A261" s="54"/>
+      <c r="B261" s="54"/>
+      <c r="C261" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="D261" s="58"/>
+      <c r="E261" s="58"/>
+      <c r="F261" s="58"/>
+      <c r="G261" s="58"/>
+      <c r="H261" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="I261" s="58"/>
+    </row>
+    <row r="262" spans="1:9" ht="17">
+      <c r="A262" s="54"/>
+      <c r="B262" s="54"/>
+      <c r="C262" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="D262" s="58"/>
+      <c r="E262" s="58"/>
+      <c r="F262" s="58"/>
+      <c r="G262" s="54"/>
+      <c r="H262" s="54"/>
+      <c r="I262" s="54"/>
+    </row>
+    <row r="263" spans="1:9" ht="17">
+      <c r="A263" s="54"/>
+      <c r="B263" s="54"/>
+      <c r="C263" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="D263" s="58"/>
+      <c r="E263" s="58"/>
+      <c r="F263" s="58"/>
+      <c r="G263" s="54"/>
+      <c r="H263" s="54"/>
+      <c r="I263" s="54"/>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="54"/>
+      <c r="B264" s="54"/>
+      <c r="C264" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="D264" s="54"/>
+      <c r="E264" s="54"/>
+      <c r="F264" s="54"/>
+      <c r="G264" s="54"/>
+      <c r="H264" s="54"/>
+      <c r="I264" s="54"/>
+    </row>
+    <row r="265" spans="1:9" ht="17">
+      <c r="A265" s="54"/>
+      <c r="B265" s="54"/>
+      <c r="C265" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="D265" s="54"/>
+      <c r="E265" s="54"/>
+      <c r="F265" s="54"/>
+      <c r="G265" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="H265" s="59"/>
+      <c r="I265" s="59"/>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="54"/>
+      <c r="B266" s="54"/>
+      <c r="C266" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D266" s="54"/>
+      <c r="E266" s="54"/>
+      <c r="F266" s="54"/>
+      <c r="G266" s="54"/>
+      <c r="H266" s="54"/>
+      <c r="I266" s="54"/>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="54"/>
+      <c r="B267" s="54"/>
+      <c r="C267" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="D267" s="54"/>
+      <c r="E267" s="54"/>
+      <c r="F267" s="54"/>
+      <c r="G267" s="54"/>
+      <c r="H267" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="I267" s="54"/>
+    </row>
+    <row r="268" spans="1:9" ht="17">
+      <c r="A268" s="54"/>
+      <c r="B268" s="54"/>
+      <c r="C268" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D268" s="54"/>
+      <c r="E268" s="54"/>
+      <c r="F268" s="54"/>
+      <c r="G268" s="54"/>
+      <c r="H268" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="I268" s="54"/>
+    </row>
+    <row r="269" spans="1:9" ht="17">
+      <c r="A269" s="54"/>
+      <c r="B269" s="54"/>
+      <c r="C269" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="D269" s="54"/>
+      <c r="E269" s="54"/>
+      <c r="F269" s="54"/>
+      <c r="G269" s="54"/>
+      <c r="H269" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="I269" s="54"/>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="54"/>
+      <c r="B270" s="54"/>
+      <c r="C270" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="D270" s="54"/>
+      <c r="E270" s="54"/>
+      <c r="F270" s="54"/>
+      <c r="G270" s="54"/>
+      <c r="H270" s="54"/>
+      <c r="I270" s="54"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>